--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$186</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5894" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7198" uniqueCount="758">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CDE age at diagnosis of essential hypertension</t>
+    <t>CDE Age At Diagnosis Of Essential Hypertension</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the component.coding value for add a further value.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2072,6 +2072,9 @@
     <t>Observation.component</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Component results</t>
   </si>
   <si>
@@ -2082,13 +2085,6 @@
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the component.code value</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -2159,36 +2155,100 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>Observation.component:DiagnosisICD10</t>
-  </si>
-  <si>
-    <t>DiagnosisICD10</t>
+    <t>Observation.component:Diagnosis</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.id</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.code</t>
+  </si>
+  <si>
+    <t>Diagnose</t>
+  </si>
+  <si>
+    <t>29308-4</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.value[x]</t>
   </si>
   <si>
     <t>Essenzielle (primäre) Hypertonie</t>
-  </si>
-  <si>
-    <t>Observation.component:DiagnosisICD10.id</t>
-  </si>
-  <si>
-    <t>Observation.component:DiagnosisICD10.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:DiagnosisICD10.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:DiagnosisICD10.code</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="29308-4"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component:DiagnosisICD10.value[x]</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -2199,13 +2259,113 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Observation.component:DiagnosisICD10.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:DiagnosisICD10.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:DiagnosisICD10.referenceRange</t>
+    <t>Observation.component:Diagnosis.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:Diagnosis.referenceRange</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis</t>
+  </si>
+  <si>
+    <t>DateOfDiagnosis</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.id</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.coding.code</t>
+  </si>
+  <si>
+    <t>432213005</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.value[x].value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t>Datum der Diagnosestellung</t>
+  </si>
+  <si>
+    <t>Primitive value for dateTime</t>
+  </si>
+  <si>
+    <t>dateTime.value</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:DateOfDiagnosis.referenceRange</t>
   </si>
 </sst>
 </file>
@@ -2525,7 +2685,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP152"/>
+  <dimension ref="A1:AP186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2535,7 +2695,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="64.75" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.2890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="26.3359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
@@ -2562,7 +2722,7 @@
     <col min="26" max="26" width="68.2421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="61.01171875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4352,7 +4512,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>
@@ -18806,13 +18966,13 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
-        <v>92</v>
+        <v>662</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>82</v>
@@ -18824,16 +18984,16 @@
         <v>591</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18870,11 +19030,9 @@
         <v>82</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>667</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="AC135" s="2"/>
       <c r="AD135" t="s" s="2">
         <v>82</v>
       </c>
@@ -18903,10 +19061,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AN135" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18917,10 +19075,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19035,10 +19193,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19155,10 +19313,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19277,10 +19435,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19306,13 +19464,13 @@
         <v>198</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>368</v>
@@ -19364,7 +19522,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>92</v>
@@ -19382,7 +19540,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>374</v>
@@ -19399,10 +19557,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19428,13 +19586,13 @@
         <v>457</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>459</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>461</v>
@@ -19486,7 +19644,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19504,7 +19662,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>465</v>
@@ -19521,10 +19679,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19550,13 +19708,13 @@
         <v>198</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>527</v>
@@ -19608,7 +19766,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19643,10 +19801,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19730,7 +19888,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19765,10 +19923,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19794,10 +19952,10 @@
         <v>83</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>594</v>
@@ -19852,7 +20010,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19887,13 +20045,13 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>661</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>82</v>
@@ -19918,16 +20076,16 @@
         <v>591</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -19997,10 +20155,10 @@
         <v>82</v>
       </c>
       <c r="AM144" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AN144" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>82</v>
@@ -20011,10 +20169,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20129,10 +20287,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20249,10 +20407,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20371,10 +20529,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20400,13 +20558,13 @@
         <v>198</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>368</v>
@@ -20419,7 +20577,7 @@
         <v>82</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>697</v>
+        <v>82</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>82</v>
@@ -20458,7 +20616,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>92</v>
@@ -20476,7 +20634,7 @@
         <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>374</v>
@@ -20493,10 +20651,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20516,29 +20674,25 @@
         <v>82</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>679</v>
+        <v>216</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>699</v>
+        <v>82</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>82</v>
@@ -20580,7 +20734,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>678</v>
+        <v>218</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20589,47 +20743,47 @@
         <v>92</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>681</v>
+        <v>82</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>466</v>
+        <v>113</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP149" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>82</v>
@@ -20641,20 +20795,18 @@
         <v>82</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>683</v>
+        <v>141</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>684</v>
+        <v>221</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>82</v>
       </c>
@@ -20678,43 +20830,43 @@
         <v>82</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>682</v>
+        <v>222</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>82</v>
@@ -20723,10 +20875,10 @@
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN150" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
@@ -20737,14 +20889,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -20760,22 +20912,22 @@
         <v>82</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>535</v>
+        <v>226</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>536</v>
+        <v>227</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>537</v>
+        <v>228</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>538</v>
+        <v>229</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20800,13 +20952,13 @@
         <v>82</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>82</v>
@@ -20824,7 +20976,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>686</v>
+        <v>230</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20842,27 +20994,27 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>542</v>
+        <v>231</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>543</v>
+        <v>232</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP151" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20873,7 +21025,7 @@
         <v>80</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>82</v>
@@ -20885,20 +21037,16 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>688</v>
+        <v>216</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
         <v>82</v>
       </c>
@@ -20946,41 +21094,4157 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN152" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP152" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="153" hidden="true">
+      <c r="A153" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O153" s="2"/>
+      <c r="P153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q153" s="2"/>
+      <c r="R153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN153" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP153" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" hidden="true">
+      <c r="A154" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="P154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q154" s="2"/>
+      <c r="R154" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN154" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AO154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP154" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q155" s="2"/>
+      <c r="R155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP155" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="P156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q156" s="2"/>
+      <c r="R156" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP156" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="P157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q157" s="2"/>
+      <c r="R157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AO157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP157" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O158" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q158" s="2"/>
+      <c r="R158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM158" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN158" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP158" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" hidden="true">
+      <c r="A159" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N159" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O159" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q159" s="2"/>
+      <c r="R159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AO159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP159" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="160" hidden="true">
+      <c r="A160" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="O160" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="P160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q160" s="2"/>
+      <c r="R160" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN160" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AO160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP160" t="s" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="161" hidden="true">
+      <c r="A161" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="P161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q161" s="2"/>
+      <c r="R161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AO161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP161" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="162" hidden="true">
+      <c r="A162" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q162" s="2"/>
+      <c r="R162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL162" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM162" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AN162" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AO162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP162" t="s" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="163" hidden="true">
+      <c r="A163" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="AG152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH152" t="s" s="2">
+      <c r="M163" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="P163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q163" s="2"/>
+      <c r="R163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH163" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM152" t="s" s="2">
+      <c r="AI163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM163" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AN152" t="s" s="2">
+      <c r="AN163" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="AO152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP152" t="s" s="2">
+      <c r="AO163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP163" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="164" hidden="true">
+      <c r="A164" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="D164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="P164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q164" s="2"/>
+      <c r="R164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AN164" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AO164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP164" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="165" hidden="true">
+      <c r="A165" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q165" s="2"/>
+      <c r="R165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN165" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP165" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" hidden="true">
+      <c r="A166" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O166" s="2"/>
+      <c r="P166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q166" s="2"/>
+      <c r="R166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN166" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP166" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="167" hidden="true">
+      <c r="A167" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O167" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q167" s="2"/>
+      <c r="R167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN167" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP167" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="168" hidden="true">
+      <c r="A168" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="P168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q168" s="2"/>
+      <c r="R168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AM168" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN168" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AO168" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AP168" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="169" hidden="true">
+      <c r="A169" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q169" s="2"/>
+      <c r="R169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN169" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP169" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="170" hidden="true">
+      <c r="A170" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O170" s="2"/>
+      <c r="P170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q170" s="2"/>
+      <c r="R170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN170" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP170" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="171" hidden="true">
+      <c r="A171" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q171" s="2"/>
+      <c r="R171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM171" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN171" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP171" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="172" hidden="true">
+      <c r="A172" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q172" s="2"/>
+      <c r="R172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN172" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP172" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="173" hidden="true">
+      <c r="A173" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q173" s="2"/>
+      <c r="R173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN173" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP173" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="174" hidden="true">
+      <c r="A174" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O174" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="P174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q174" s="2"/>
+      <c r="R174" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="S174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN174" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AO174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP174" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="175" hidden="true">
+      <c r="A175" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O175" s="2"/>
+      <c r="P175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q175" s="2"/>
+      <c r="R175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM175" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN175" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP175" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" hidden="true">
+      <c r="A176" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="P176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q176" s="2"/>
+      <c r="R176" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM176" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN176" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP176" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="177" hidden="true">
+      <c r="A177" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="P177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q177" s="2"/>
+      <c r="R177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM177" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN177" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AO177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP177" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="178" hidden="true">
+      <c r="A178" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q178" s="2"/>
+      <c r="R178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM178" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN178" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP178" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="179" hidden="true">
+      <c r="A179" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O179" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q179" s="2"/>
+      <c r="R179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM179" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN179" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AO179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP179" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="180" hidden="true">
+      <c r="A180" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="O180" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="P180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q180" s="2"/>
+      <c r="R180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AM180" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN180" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AO180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP180" t="s" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="181" hidden="true">
+      <c r="A181" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q181" s="2"/>
+      <c r="R181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN181" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP181" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="182" hidden="true">
+      <c r="A182" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O182" s="2"/>
+      <c r="P182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q182" s="2"/>
+      <c r="R182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP182" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" hidden="true">
+      <c r="A183" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q183" s="2"/>
+      <c r="R183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP183" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" hidden="true">
+      <c r="A184" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="P184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q184" s="2"/>
+      <c r="R184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AO184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP184" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="185" hidden="true">
+      <c r="A185" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q185" s="2"/>
+      <c r="R185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM185" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AN185" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AO185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP185" t="s" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="186" hidden="true">
+      <c r="A186" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O186" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="P186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q186" s="2"/>
+      <c r="R186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM186" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AN186" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AO186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP186" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP152">
+  <autoFilter ref="A1:AP186">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20990,7 +25254,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI151">
+  <conditionalFormatting sqref="A2:AI185">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$185</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7198" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="748">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1190,59 +1190,28 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ageCode</t>
-  </si>
-  <si>
-    <t>ageCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ageCode.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.system</t>
-  </si>
-  <si>
     <t>Observation.code.coding.system</t>
   </si>
   <si>
     <t>http://loinc.org</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
     <t>30525-0</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.display</t>
-  </si>
-  <si>
     <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ageCode.userSelected</t>
   </si>
   <si>
     <t>Observation.code.coding.userSelected</t>
@@ -2685,7 +2654,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP186"/>
+  <dimension ref="A1:AP185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13282,7 +13251,7 @@
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
@@ -13364,7 +13333,7 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>372</v>
@@ -13642,7 +13611,7 @@
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
@@ -13700,14 +13669,16 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AC91" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>230</v>
@@ -13745,48 +13716,42 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13834,19 +13799,19 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13855,10 +13820,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13869,21 +13834,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13895,15 +13860,17 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13940,31 +13907,31 @@
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13976,7 +13943,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13987,21 +13954,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -14010,27 +13977,29 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -14060,31 +14029,31 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -14093,10 +14062,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -14107,10 +14076,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14118,7 +14087,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>92</v>
@@ -14133,26 +14102,24 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>82</v>
@@ -14194,7 +14161,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -14215,10 +14182,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14229,10 +14196,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14240,7 +14207,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>92</v>
@@ -14255,24 +14222,26 @@
         <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -14314,7 +14283,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14335,10 +14304,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14349,10 +14318,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14360,7 +14329,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>92</v>
@@ -14375,26 +14344,26 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>82</v>
@@ -14436,7 +14405,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14457,10 +14426,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14471,10 +14440,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14497,19 +14466,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14558,7 +14527,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14579,10 +14548,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14593,10 +14562,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14604,13 +14573,13 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
@@ -14619,19 +14588,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14641,7 +14610,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14680,7 +14649,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14701,10 +14670,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14715,10 +14684,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14741,19 +14710,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>288</v>
+        <v>396</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14802,7 +14771,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>289</v>
+        <v>391</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14814,22 +14783,22 @@
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>290</v>
+        <v>398</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14851,7 +14820,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14874,9 +14843,7 @@
       <c r="N101" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="O101" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14930,7 +14897,7 @@
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>104</v>
@@ -14939,19 +14906,19 @@
         <v>170</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14959,21 +14926,21 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14985,18 +14952,20 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -15044,13 +15013,13 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>104</v>
@@ -15059,19 +15028,19 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>416</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15079,14 +15048,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -15105,19 +15074,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -15166,7 +15135,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15178,22 +15147,22 @@
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15201,14 +15170,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15238,9 +15207,7 @@
       <c r="N104" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="O104" t="s" s="2">
-        <v>434</v>
-      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -15288,7 +15255,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15303,19 +15270,19 @@
         <v>105</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15323,10 +15290,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15337,7 +15304,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -15349,18 +15316,20 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="N105" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O105" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M105" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15408,34 +15377,34 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AN105" t="s" s="2">
+      <c r="AO105" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15443,10 +15412,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15457,7 +15426,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15469,16 +15438,16 @@
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>451</v>
@@ -15518,59 +15487,59 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>104</v>
+        <v>453</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>82</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15591,19 +15560,19 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15640,59 +15609,59 @@
         <v>82</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AC107" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AG107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15710,23 +15679,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>470</v>
+        <v>215</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>458</v>
+        <v>216</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15774,7 +15739,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>456</v>
+        <v>218</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15783,7 +15748,7 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>82</v>
@@ -15792,38 +15757,38 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>466</v>
+        <v>113</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15835,15 +15800,17 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15880,31 +15847,31 @@
         <v>82</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
@@ -15916,7 +15883,7 @@
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15927,44 +15894,46 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>140</v>
+        <v>467</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>141</v>
+        <v>468</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>221</v>
+        <v>469</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O110" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -16000,31 +15969,31 @@
         <v>82</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>222</v>
+        <v>472</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -16033,10 +16002,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>106</v>
+        <v>474</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -16058,65 +16027,67 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O111" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="P111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q111" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="O111" t="s" s="2">
+      <c r="R111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y111" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="P111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="Z111" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -16134,7 +16105,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16155,10 +16126,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16169,10 +16140,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16180,41 +16151,39 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q112" t="s" s="2">
-        <v>490</v>
-      </c>
+      <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
         <v>82</v>
       </c>
@@ -16234,31 +16203,31 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF112" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16279,10 +16248,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16293,10 +16262,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16319,26 +16288,26 @@
         <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>82</v>
@@ -16389,7 +16358,7 @@
         <v>92</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>104</v>
+        <v>502</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16401,7 +16370,7 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>503</v>
@@ -16441,50 +16410,50 @@
         <v>93</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>506</v>
       </c>
       <c r="M114" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Z114" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16511,7 +16480,7 @@
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>512</v>
+        <v>104</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>105</v>
@@ -16523,10 +16492,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16537,10 +16506,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16548,34 +16517,34 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M115" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16600,7 +16569,7 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>188</v>
+        <v>518</v>
       </c>
       <c r="Y115" t="s" s="2">
         <v>519</v>
@@ -16624,16 +16593,16 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI115" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -16645,7 +16614,7 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>502</v>
+        <v>106</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>522</v>
@@ -16666,14 +16635,14 @@
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -16688,16 +16657,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16722,7 +16691,7 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="Y116" t="s" s="2">
         <v>529</v>
@@ -16752,10 +16721,10 @@
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16764,31 +16733,31 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>106</v>
+        <v>532</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16807,19 +16776,19 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>198</v>
+        <v>536</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16844,13 +16813,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16868,7 +16837,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16886,27 +16855,27 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AM117" t="s" s="2">
+      <c r="AN117" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AN117" t="s" s="2">
-        <v>543</v>
-      </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16917,7 +16886,7 @@
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16929,20 +16898,18 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N118" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L118" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>550</v>
-      </c>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16966,13 +16933,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16990,13 +16957,13 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>104</v>
@@ -17008,19 +16975,19 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="AM118" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AN118" t="s" s="2">
+      <c r="AO118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP118" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="119" hidden="true">
@@ -17062,7 +17029,9 @@
       <c r="N119" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="O119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -17089,10 +17058,10 @@
         <v>369</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -17128,7 +17097,7 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>560</v>
@@ -17140,15 +17109,15 @@
         <v>82</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17171,7 +17140,7 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>198</v>
+        <v>563</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>564</v>
@@ -17182,9 +17151,7 @@
       <c r="N120" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="O120" t="s" s="2">
-        <v>567</v>
-      </c>
+      <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>82</v>
       </c>
@@ -17208,13 +17175,13 @@
         <v>82</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -17232,7 +17199,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17244,33 +17211,33 @@
         <v>104</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP120" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17293,16 +17260,16 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17352,7 +17319,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17370,27 +17337,27 @@
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AM121" t="s" s="2">
+      <c r="AN121" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AN121" t="s" s="2">
+      <c r="AO121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP121" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>580</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17401,7 +17368,7 @@
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
@@ -17413,18 +17380,20 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17472,25 +17441,25 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>170</v>
+        <v>586</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>587</v>
@@ -17502,15 +17471,15 @@
         <v>82</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17521,7 +17490,7 @@
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17533,20 +17502,16 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>591</v>
+        <v>215</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>592</v>
+        <v>216</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17594,19 +17559,19 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>590</v>
+        <v>218</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>596</v>
+        <v>82</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17615,10 +17580,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>598</v>
+        <v>113</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17629,21 +17594,21 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>82</v>
@@ -17655,15 +17620,17 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17700,31 +17667,31 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17736,7 +17703,7 @@
         <v>82</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17747,14 +17714,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>139</v>
+        <v>592</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17767,24 +17734,26 @@
         <v>82</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>141</v>
+        <v>593</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>221</v>
+        <v>594</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
@@ -17820,19 +17789,19 @@
         <v>82</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>222</v>
+        <v>595</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17867,46 +17836,44 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>140</v>
+        <v>597</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>82</v>
       </c>
@@ -17954,19 +17921,19 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>104</v>
+        <v>601</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>148</v>
+        <v>602</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
@@ -17975,10 +17942,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>82</v>
+        <v>603</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>106</v>
+        <v>604</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17989,10 +17956,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18015,16 +17982,16 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L127" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="N127" t="s" s="2">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -18074,7 +18041,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18083,10 +18050,10 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -18095,10 +18062,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -18109,10 +18076,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18135,18 +18102,20 @@
         <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>607</v>
+        <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O128" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
       </c>
@@ -18170,13 +18139,13 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>82</v>
+        <v>614</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18194,7 +18163,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18203,22 +18172,22 @@
         <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>611</v>
+        <v>104</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>612</v>
+        <v>105</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>82</v>
+        <v>616</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>618</v>
+        <v>533</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18229,10 +18198,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18243,7 +18212,7 @@
         <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>82</v>
@@ -18258,16 +18227,16 @@
         <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18292,14 +18261,14 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>119</v>
+        <v>369</v>
       </c>
       <c r="Y129" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="Z129" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="Z129" t="s" s="2">
-        <v>625</v>
-      </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
       </c>
@@ -18316,13 +18285,13 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>104</v>
@@ -18334,13 +18303,13 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18351,10 +18320,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18365,7 +18334,7 @@
         <v>80</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>82</v>
@@ -18377,19 +18346,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>198</v>
+        <v>626</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N130" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18414,13 +18383,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>633</v>
+        <v>82</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>634</v>
+        <v>82</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -18438,31 +18407,31 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>105</v>
+        <v>631</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>626</v>
+        <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>543</v>
+        <v>633</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18473,10 +18442,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18499,20 +18468,18 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L131" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>638</v>
-      </c>
       <c r="N131" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>640</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18560,7 +18527,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18572,7 +18539,7 @@
         <v>104</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>641</v>
+        <v>105</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>82</v>
@@ -18581,10 +18548,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18595,10 +18562,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18609,7 +18576,7 @@
         <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>82</v>
@@ -18618,19 +18585,19 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>215</v>
+        <v>639</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>259</v>
+        <v>642</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18680,19 +18647,19 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
@@ -18701,10 +18668,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18715,10 +18682,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18741,16 +18708,16 @@
         <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18800,7 +18767,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18821,10 +18788,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18835,10 +18802,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18846,13 +18813,13 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>80</v>
+        <v>652</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>82</v>
@@ -18861,18 +18828,20 @@
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O134" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L134" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18908,19 +18877,17 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18932,7 +18899,7 @@
         <v>104</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>82</v>
@@ -18941,10 +18908,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18955,10 +18922,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18966,35 +18933,31 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
-        <v>662</v>
+        <v>80</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>591</v>
+        <v>215</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>663</v>
+        <v>216</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>666</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>82</v>
       </c>
@@ -19030,29 +18993,31 @@
         <v>82</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AC135" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>661</v>
+        <v>218</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>82</v>
@@ -19061,10 +19026,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>668</v>
+        <v>113</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -19075,21 +19040,21 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>82</v>
@@ -19101,15 +19066,17 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N136" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -19146,31 +19113,31 @@
         <v>82</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>82</v>
@@ -19182,7 +19149,7 @@
         <v>82</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -19193,14 +19160,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>139</v>
+        <v>592</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19213,24 +19180,26 @@
         <v>82</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>141</v>
+        <v>593</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>221</v>
+        <v>594</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O137" s="2"/>
+      <c r="O137" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
       </c>
@@ -19266,19 +19235,19 @@
         <v>82</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>222</v>
+        <v>595</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19313,45 +19282,45 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>603</v>
+        <v>663</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>604</v>
+        <v>664</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>143</v>
+        <v>665</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19376,13 +19345,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19400,34 +19369,34 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>82</v>
+        <v>666</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19435,10 +19404,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19446,7 +19415,7 @@
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>92</v>
@@ -19461,19 +19430,19 @@
         <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>674</v>
+        <v>449</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19498,13 +19467,13 @@
         <v>82</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19522,10 +19491,10 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>92</v>
@@ -19540,27 +19509,27 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>375</v>
+        <v>456</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>82</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19580,22 +19549,22 @@
         <v>82</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>457</v>
+        <v>198</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>459</v>
+        <v>673</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19620,13 +19589,13 @@
         <v>82</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19644,7 +19613,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19653,7 +19622,7 @@
         <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>104</v>
+        <v>521</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>105</v>
@@ -19662,38 +19631,38 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>680</v>
+        <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>465</v>
+        <v>106</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP140" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>82</v>
@@ -19708,16 +19677,16 @@
         <v>198</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>682</v>
+        <v>525</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>683</v>
+        <v>526</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>684</v>
+        <v>527</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19742,7 +19711,7 @@
         <v>82</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="Y141" t="s" s="2">
         <v>529</v>
@@ -19766,16 +19735,16 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>105</v>
@@ -19784,31 +19753,31 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>106</v>
+        <v>532</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -19827,19 +19796,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>535</v>
+        <v>677</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>536</v>
+        <v>678</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19864,13 +19833,13 @@
         <v>82</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>82</v>
@@ -19888,7 +19857,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19897,71 +19866,73 @@
         <v>81</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP142" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="C143" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>680</v>
+      </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>83</v>
+        <v>581</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>687</v>
+        <v>653</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>595</v>
+        <v>656</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20010,7 +19981,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20019,10 +19990,10 @@
         <v>81</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>82</v>
@@ -20031,10 +20002,10 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>597</v>
+        <v>657</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>598</v>
+        <v>658</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>82</v>
@@ -20045,48 +20016,42 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>690</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>591</v>
+        <v>215</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>663</v>
+        <v>216</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>666</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>82</v>
       </c>
@@ -20134,19 +20099,19 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>661</v>
+        <v>218</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>82</v>
@@ -20155,10 +20120,10 @@
         <v>82</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>668</v>
+        <v>113</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>82</v>
@@ -20169,21 +20134,21 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>82</v>
@@ -20195,15 +20160,17 @@
         <v>82</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N145" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20240,31 +20207,31 @@
         <v>82</v>
       </c>
       <c r="AB145" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC145" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>82</v>
@@ -20276,7 +20243,7 @@
         <v>82</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>82</v>
@@ -20287,14 +20254,14 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>139</v>
+        <v>592</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -20307,24 +20274,26 @@
         <v>82</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>141</v>
+        <v>593</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>221</v>
+        <v>594</v>
       </c>
       <c r="N146" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
       </c>
@@ -20360,19 +20329,19 @@
         <v>82</v>
       </c>
       <c r="AB146" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC146" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>222</v>
+        <v>595</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20407,45 +20376,45 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J147" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>603</v>
+        <v>663</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>604</v>
+        <v>664</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>143</v>
+        <v>665</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20470,13 +20439,13 @@
         <v>82</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>82</v>
@@ -20494,34 +20463,34 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>82</v>
+        <v>666</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20529,10 +20498,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20540,7 +20509,7 @@
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>92</v>
@@ -20552,23 +20521,19 @@
         <v>82</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>673</v>
+        <v>216</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
         <v>82</v>
       </c>
@@ -20592,13 +20557,13 @@
         <v>82</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>82</v>
@@ -20616,34 +20581,34 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>672</v>
+        <v>218</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>676</v>
+        <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>375</v>
+        <v>113</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20651,21 +20616,21 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>82</v>
@@ -20677,15 +20642,17 @@
         <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N149" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20722,31 +20689,31 @@
         <v>82</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>82</v>
@@ -20758,7 +20725,7 @@
         <v>82</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>82</v>
@@ -20769,14 +20736,14 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20792,21 +20759,23 @@
         <v>82</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O150" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
       </c>
@@ -20842,19 +20811,19 @@
         <v>82</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20866,7 +20835,7 @@
         <v>104</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>82</v>
@@ -20875,10 +20844,10 @@
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
@@ -20889,10 +20858,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20903,7 +20872,7 @@
         <v>80</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>82</v>
@@ -20912,23 +20881,19 @@
         <v>82</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
         <v>82</v>
       </c>
@@ -20976,19 +20941,19 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>82</v>
@@ -20997,10 +20962,10 @@
         <v>82</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>82</v>
@@ -21011,21 +20976,21 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>82</v>
@@ -21037,15 +21002,17 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N152" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21082,31 +21049,31 @@
         <v>82</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC152" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>82</v>
@@ -21118,7 +21085,7 @@
         <v>82</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>82</v>
@@ -21129,21 +21096,21 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>82</v>
@@ -21152,27 +21119,29 @@
         <v>82</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O153" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O153" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>82</v>
@@ -21202,31 +21171,31 @@
         <v>82</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>82</v>
@@ -21235,10 +21204,10 @@
         <v>82</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
@@ -21249,10 +21218,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21260,7 +21229,7 @@
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>92</v>
@@ -21275,26 +21244,24 @@
         <v>93</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>82</v>
@@ -21336,7 +21303,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21357,10 +21324,10 @@
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>82</v>
@@ -21371,10 +21338,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21382,7 +21349,7 @@
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>92</v>
@@ -21397,24 +21364,26 @@
         <v>93</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>249</v>
+        <v>701</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O155" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q155" s="2"/>
       <c r="R155" t="s" s="2">
-        <v>82</v>
+        <v>702</v>
       </c>
       <c r="S155" t="s" s="2">
         <v>82</v>
@@ -21456,7 +21425,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21477,10 +21446,10 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>82</v>
@@ -21491,10 +21460,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21502,7 +21471,7 @@
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>92</v>
@@ -21517,26 +21486,26 @@
         <v>93</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>711</v>
+        <v>267</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N156" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>712</v>
+        <v>82</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>82</v>
@@ -21578,7 +21547,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21599,10 +21568,10 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>82</v>
@@ -21613,10 +21582,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21639,19 +21608,19 @@
         <v>93</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21700,7 +21669,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21721,10 +21690,10 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>82</v>
@@ -21735,10 +21704,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21761,19 +21730,19 @@
         <v>93</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -21822,7 +21791,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21843,10 +21812,10 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>82</v>
@@ -21857,10 +21826,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>718</v>
+        <v>667</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21883,26 +21852,26 @@
         <v>93</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>285</v>
+        <v>710</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>287</v>
+        <v>669</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>288</v>
+        <v>451</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>82</v>
+        <v>711</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>82</v>
@@ -21944,7 +21913,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>289</v>
+        <v>667</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21962,27 +21931,27 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>82</v>
+        <v>670</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>291</v>
+        <v>456</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP159" t="s" s="2">
-        <v>82</v>
+        <v>457</v>
       </c>
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22002,29 +21971,29 @@
         <v>82</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>720</v>
+        <v>672</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>459</v>
+        <v>673</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q160" s="2"/>
       <c r="R160" t="s" s="2">
-        <v>721</v>
+        <v>82</v>
       </c>
       <c r="S160" t="s" s="2">
         <v>82</v>
@@ -22042,13 +22011,13 @@
         <v>82</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22066,7 +22035,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22075,7 +22044,7 @@
         <v>92</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>104</v>
+        <v>521</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>105</v>
@@ -22084,38 +22053,38 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>680</v>
+        <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>465</v>
+        <v>106</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP160" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>82</v>
@@ -22130,16 +22099,16 @@
         <v>198</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>682</v>
+        <v>525</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>683</v>
+        <v>526</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>684</v>
+        <v>527</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22164,7 +22133,7 @@
         <v>82</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="Y161" t="s" s="2">
         <v>529</v>
@@ -22188,16 +22157,16 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>105</v>
@@ -22206,31 +22175,31 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>106</v>
+        <v>532</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP161" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
@@ -22249,19 +22218,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>535</v>
+        <v>677</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>536</v>
+        <v>678</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22286,13 +22255,13 @@
         <v>82</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>82</v>
@@ -22310,7 +22279,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22319,71 +22288,73 @@
         <v>81</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP162" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="C163" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="D163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>83</v>
+        <v>581</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>687</v>
+        <v>653</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>595</v>
+        <v>656</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22432,7 +22403,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22441,10 +22412,10 @@
         <v>81</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>82</v>
@@ -22453,10 +22424,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>597</v>
+        <v>657</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>598</v>
+        <v>658</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22467,48 +22438,42 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>726</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>591</v>
+        <v>215</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>663</v>
+        <v>216</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>666</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
         <v>82</v>
       </c>
@@ -22556,19 +22521,19 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>661</v>
+        <v>218</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
@@ -22577,10 +22542,10 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>668</v>
+        <v>113</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>82</v>
@@ -22591,21 +22556,21 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>82</v>
@@ -22617,15 +22582,17 @@
         <v>82</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N165" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
         <v>82</v>
@@ -22662,31 +22629,31 @@
         <v>82</v>
       </c>
       <c r="AB165" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC165" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>82</v>
@@ -22698,7 +22665,7 @@
         <v>82</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>82</v>
@@ -22709,14 +22676,14 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>139</v>
+        <v>592</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -22729,24 +22696,26 @@
         <v>82</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>141</v>
+        <v>593</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>221</v>
+        <v>594</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O166" s="2"/>
+      <c r="O166" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
       </c>
@@ -22782,19 +22751,19 @@
         <v>82</v>
       </c>
       <c r="AB166" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC166" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>222</v>
+        <v>595</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22829,45 +22798,45 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J167" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>603</v>
+        <v>663</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>604</v>
+        <v>664</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>143</v>
+        <v>665</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -22892,13 +22861,13 @@
         <v>82</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>82</v>
@@ -22916,34 +22885,34 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>82</v>
+        <v>666</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -22951,10 +22920,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22962,7 +22931,7 @@
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>92</v>
@@ -22974,23 +22943,19 @@
         <v>82</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>673</v>
+        <v>216</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
         <v>82</v>
       </c>
@@ -23014,13 +22979,13 @@
         <v>82</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
@@ -23038,34 +23003,34 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>672</v>
+        <v>218</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>676</v>
+        <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>375</v>
+        <v>113</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP168" t="s" s="2">
         <v>82</v>
@@ -23073,21 +23038,21 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H169" t="s" s="2">
         <v>82</v>
@@ -23099,15 +23064,17 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N169" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23144,31 +23111,31 @@
         <v>82</v>
       </c>
       <c r="AB169" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC169" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>82</v>
@@ -23180,7 +23147,7 @@
         <v>82</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>82</v>
@@ -23191,14 +23158,14 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
@@ -23214,21 +23181,23 @@
         <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O170" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
@@ -23264,19 +23233,19 @@
         <v>82</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC170" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23288,7 +23257,7 @@
         <v>104</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>82</v>
@@ -23297,10 +23266,10 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>82</v>
@@ -23311,10 +23280,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23325,7 +23294,7 @@
         <v>80</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>82</v>
@@ -23334,23 +23303,19 @@
         <v>82</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>82</v>
       </c>
@@ -23398,19 +23363,19 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>82</v>
@@ -23419,10 +23384,10 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -23433,21 +23398,21 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>82</v>
@@ -23459,15 +23424,17 @@
         <v>82</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N172" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23504,31 +23471,31 @@
         <v>82</v>
       </c>
       <c r="AB172" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC172" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
@@ -23540,7 +23507,7 @@
         <v>82</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>82</v>
@@ -23551,21 +23518,21 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>82</v>
@@ -23574,27 +23541,29 @@
         <v>82</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O173" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O173" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q173" s="2"/>
       <c r="R173" t="s" s="2">
-        <v>82</v>
+        <v>727</v>
       </c>
       <c r="S173" t="s" s="2">
         <v>82</v>
@@ -23624,31 +23593,31 @@
         <v>82</v>
       </c>
       <c r="AB173" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC173" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI173" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>82</v>
@@ -23657,10 +23626,10 @@
         <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>82</v>
@@ -23671,10 +23640,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23682,7 +23651,7 @@
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>92</v>
@@ -23697,26 +23666,24 @@
         <v>93</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>737</v>
+        <v>82</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>82</v>
@@ -23758,7 +23725,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23779,10 +23746,10 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
@@ -23793,10 +23760,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23804,7 +23771,7 @@
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>92</v>
@@ -23819,24 +23786,26 @@
         <v>93</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O175" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" t="s" s="2">
-        <v>82</v>
+        <v>730</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>82</v>
@@ -23878,7 +23847,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23899,10 +23868,10 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>82</v>
@@ -23913,10 +23882,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23924,7 +23893,7 @@
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>92</v>
@@ -23939,26 +23908,26 @@
         <v>93</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N176" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>740</v>
+        <v>82</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>82</v>
@@ -24000,7 +23969,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24021,10 +23990,10 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>82</v>
@@ -24035,10 +24004,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24061,19 +24030,19 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24122,7 +24091,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24143,10 +24112,10 @@
         <v>82</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>82</v>
@@ -24157,10 +24126,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24183,19 +24152,19 @@
         <v>93</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24244,7 +24213,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24265,10 +24234,10 @@
         <v>82</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>82</v>
@@ -24279,10 +24248,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>718</v>
+        <v>667</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24305,19 +24274,19 @@
         <v>93</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>215</v>
+        <v>735</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>285</v>
+        <v>668</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>287</v>
+        <v>669</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>288</v>
+        <v>451</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24366,7 +24335,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>289</v>
+        <v>667</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24378,33 +24347,33 @@
         <v>104</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>82</v>
+        <v>670</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>291</v>
+        <v>456</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP179" t="s" s="2">
-        <v>82</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>677</v>
+        <v>737</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24424,23 +24393,19 @@
         <v>82</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>745</v>
+        <v>215</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>678</v>
+        <v>216</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
         <v>82</v>
       </c>
@@ -24488,7 +24453,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>677</v>
+        <v>218</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24497,7 +24462,7 @@
         <v>92</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>82</v>
@@ -24506,38 +24471,38 @@
         <v>82</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>680</v>
+        <v>82</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>466</v>
+        <v>113</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP180" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H181" t="s" s="2">
         <v>82</v>
@@ -24549,15 +24514,17 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N181" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N181" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
         <v>82</v>
@@ -24594,31 +24561,31 @@
         <v>82</v>
       </c>
       <c r="AB181" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC181" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK181" t="s" s="2">
         <v>82</v>
@@ -24630,7 +24597,7 @@
         <v>82</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>82</v>
@@ -24641,24 +24608,24 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>82</v>
@@ -24667,17 +24634,15 @@
         <v>82</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>140</v>
+        <v>735</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>141</v>
+        <v>742</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
         <v>82</v>
@@ -24714,31 +24679,31 @@
         <v>82</v>
       </c>
       <c r="AB182" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC182" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD182" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>222</v>
+        <v>744</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH182" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK182" t="s" s="2">
         <v>82</v>
@@ -24750,7 +24715,7 @@
         <v>82</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>82</v>
@@ -24761,10 +24726,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>751</v>
+        <v>671</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24772,13 +24737,13 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>82</v>
@@ -24787,16 +24752,20 @@
         <v>82</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>745</v>
+        <v>198</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>752</v>
+        <v>672</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
+        <v>673</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
       </c>
@@ -24820,13 +24789,13 @@
         <v>82</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>82</v>
@@ -24844,7 +24813,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>754</v>
+        <v>671</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24853,10 +24822,10 @@
         <v>92</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>82</v>
+        <v>521</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>82</v>
@@ -24865,10 +24834,10 @@
         <v>82</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>82</v>
+        <v>522</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>82</v>
@@ -24879,21 +24848,21 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>82</v>
@@ -24908,16 +24877,16 @@
         <v>198</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>682</v>
+        <v>525</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>683</v>
+        <v>526</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>684</v>
+        <v>527</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -24942,7 +24911,7 @@
         <v>82</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="Y184" t="s" s="2">
         <v>529</v>
@@ -24966,16 +24935,16 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>105</v>
@@ -24984,31 +24953,31 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>106</v>
+        <v>532</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP184" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25027,19 +24996,19 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>535</v>
+        <v>677</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>536</v>
+        <v>678</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
@@ -25064,13 +25033,13 @@
         <v>82</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>82</v>
@@ -25088,7 +25057,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25097,154 +25066,32 @@
         <v>81</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK185" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP185" t="s" s="2">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="186" hidden="true">
-      <c r="A186" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="B186" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="C186" s="2"/>
-      <c r="D186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E186" s="2"/>
-      <c r="F186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="P186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q186" s="2"/>
-      <c r="R186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AG186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM186" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AN186" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AO186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP186" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP186">
+  <autoFilter ref="A1:AP185">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -25254,7 +25101,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI185">
+  <conditionalFormatting sqref="A2:AI184">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
+    <t>value:$this.code}
+value:$this.system}</t>
   </si>
   <si>
     <t>Slice based on the component.coding value for add a further value.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2054,6 +2051,10 @@
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding}
+</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -4484,7 +4485,7 @@
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4508,13 +4509,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4522,13 +4523,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4632,13 +4633,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4646,10 +4647,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4672,13 +4673,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4729,7 +4730,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4764,10 +4765,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4796,7 +4797,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4849,7 +4850,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4884,10 +4885,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4910,19 +4911,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4971,7 +4972,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4992,10 +4993,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -5006,10 +5007,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -5032,13 +5033,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5089,7 +5090,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -5124,10 +5125,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5156,7 +5157,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -5209,7 +5210,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5244,10 +5245,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5273,65 +5274,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5352,10 +5353,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5366,10 +5367,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5392,16 +5393,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5451,7 +5452,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5472,10 +5473,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5486,10 +5487,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5515,65 +5516,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5594,10 +5595,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5608,10 +5609,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5634,19 +5635,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5695,7 +5696,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5716,10 +5717,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5730,10 +5731,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5756,19 +5757,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5817,7 +5818,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5838,10 +5839,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5852,10 +5853,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5878,19 +5879,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5939,7 +5940,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5960,10 +5961,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5974,13 +5975,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -6084,13 +6085,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -6098,10 +6099,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6124,13 +6125,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6181,7 +6182,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6216,10 +6217,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6248,7 +6249,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6301,7 +6302,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6336,10 +6337,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6362,19 +6363,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6423,7 +6424,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6444,10 +6445,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6458,10 +6459,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6484,13 +6485,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6541,7 +6542,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6576,10 +6577,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6608,7 +6609,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6661,7 +6662,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6696,10 +6697,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6725,23 +6726,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6783,7 +6784,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6804,10 +6805,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6818,10 +6819,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6844,16 +6845,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6903,7 +6904,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6924,10 +6925,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6938,10 +6939,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6967,23 +6968,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -7025,7 +7026,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -7046,10 +7047,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -7060,10 +7061,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7086,19 +7087,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -7147,7 +7148,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -7168,10 +7169,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -7182,10 +7183,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7208,19 +7209,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7269,7 +7270,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7290,10 +7291,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7304,10 +7305,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7330,19 +7331,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7391,7 +7392,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7412,10 +7413,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7426,13 +7427,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7536,13 +7537,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7550,10 +7551,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7576,13 +7577,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7633,7 +7634,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7668,10 +7669,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7700,7 +7701,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7753,7 +7754,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7788,10 +7789,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7814,19 +7815,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7875,7 +7876,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7896,10 +7897,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7910,10 +7911,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7936,13 +7937,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7993,7 +7994,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -8028,10 +8029,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8060,7 +8061,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -8113,7 +8114,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -8148,10 +8149,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8177,23 +8178,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -8235,7 +8236,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8256,10 +8257,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8270,10 +8271,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8296,16 +8297,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8355,7 +8356,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8376,10 +8377,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8390,10 +8391,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8419,23 +8420,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8477,7 +8478,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8498,10 +8499,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8512,10 +8513,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8538,19 +8539,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8599,7 +8600,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8620,10 +8621,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8634,10 +8635,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8660,19 +8661,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8721,7 +8722,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8742,10 +8743,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8756,10 +8757,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8782,19 +8783,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8843,7 +8844,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8864,10 +8865,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8878,13 +8879,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8988,13 +8989,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -9002,10 +9003,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9028,13 +9029,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -9085,7 +9086,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9120,10 +9121,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9152,7 +9153,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -9205,7 +9206,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9240,10 +9241,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9266,19 +9267,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9327,7 +9328,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9348,10 +9349,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9362,10 +9363,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9388,13 +9389,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9445,7 +9446,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9480,10 +9481,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9512,7 +9513,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9565,7 +9566,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9600,10 +9601,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9629,23 +9630,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9687,7 +9688,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9708,10 +9709,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9722,10 +9723,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9748,16 +9749,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9807,7 +9808,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9828,10 +9829,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9842,10 +9843,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9871,23 +9872,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9929,7 +9930,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9950,10 +9951,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9964,10 +9965,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9990,19 +9991,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -10051,7 +10052,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10072,10 +10073,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -10086,10 +10087,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10112,19 +10113,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -10173,7 +10174,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10194,10 +10195,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -10208,10 +10209,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10234,19 +10235,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10295,7 +10296,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10316,10 +10317,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10330,13 +10331,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10440,13 +10441,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10454,10 +10455,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10480,13 +10481,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10537,7 +10538,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10572,10 +10573,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10604,7 +10605,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10657,7 +10658,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10692,10 +10693,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10718,19 +10719,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10779,7 +10780,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10800,10 +10801,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10814,10 +10815,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10840,13 +10841,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10897,7 +10898,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10932,10 +10933,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10964,7 +10965,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -11017,7 +11018,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -11052,10 +11053,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11081,23 +11082,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -11139,7 +11140,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -11160,10 +11161,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -11174,10 +11175,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11200,16 +11201,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11259,7 +11260,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11280,10 +11281,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11294,10 +11295,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11323,23 +11324,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11381,7 +11382,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11402,10 +11403,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11416,10 +11417,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11442,19 +11443,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11503,7 +11504,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11524,10 +11525,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11538,10 +11539,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11564,19 +11565,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11625,7 +11626,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11646,10 +11647,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11660,10 +11661,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11686,19 +11687,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11747,7 +11748,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11768,10 +11769,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11782,13 +11783,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
@@ -11892,13 +11893,13 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11906,10 +11907,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11932,13 +11933,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11989,7 +11990,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -12024,10 +12025,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12056,7 +12057,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -12109,7 +12110,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -12144,10 +12145,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12170,19 +12171,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12231,7 +12232,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12252,10 +12253,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12266,10 +12267,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12292,13 +12293,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12349,7 +12350,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12384,10 +12385,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12416,7 +12417,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12469,7 +12470,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12504,10 +12505,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12533,23 +12534,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12591,7 +12592,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12612,10 +12613,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12626,10 +12627,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12652,16 +12653,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12711,7 +12712,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12732,10 +12733,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12746,10 +12747,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12775,23 +12776,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12833,7 +12834,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12854,10 +12855,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12868,10 +12869,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12894,19 +12895,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12955,7 +12956,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12976,10 +12977,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12990,10 +12991,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13016,19 +13017,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -13077,7 +13078,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13098,10 +13099,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -13112,10 +13113,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13138,19 +13139,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -13199,7 +13200,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13220,10 +13221,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13234,14 +13235,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -13263,16 +13264,16 @@
         <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13297,14 +13298,14 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Y88" t="s" s="2">
+      <c r="Z88" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13321,7 +13322,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>92</v>
@@ -13336,30 +13337,30 @@
         <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AO88" t="s" s="2">
+      <c r="AP88" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13382,13 +13383,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13439,7 +13440,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13474,10 +13475,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13506,7 +13507,7 @@
         <v>141</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>143</v>
@@ -13559,7 +13560,7 @@
         <v>146</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13594,10 +13595,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13620,19 +13621,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13681,7 +13682,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13702,10 +13703,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13716,10 +13717,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13742,13 +13743,13 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13799,7 +13800,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13834,10 +13835,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13866,7 +13867,7 @@
         <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>143</v>
@@ -13919,7 +13920,7 @@
         <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13954,10 +13955,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13983,23 +13984,23 @@
         <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -14041,7 +14042,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -14062,10 +14063,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -14076,10 +14077,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14102,16 +14103,16 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14161,7 +14162,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -14182,10 +14183,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14196,10 +14197,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14225,23 +14226,23 @@
         <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -14283,7 +14284,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14304,10 +14305,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14318,10 +14319,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14344,19 +14345,19 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O97" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14405,7 +14406,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14426,10 +14427,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14440,10 +14441,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14466,19 +14467,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14527,7 +14528,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14548,10 +14549,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14562,10 +14563,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14588,19 +14589,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14610,7 +14611,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14649,7 +14650,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14670,10 +14671,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14684,10 +14685,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14710,19 +14711,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14771,7 +14772,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14786,19 +14787,19 @@
         <v>170</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AO100" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14806,10 +14807,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14832,16 +14833,16 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14891,7 +14892,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14912,13 +14913,13 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14926,14 +14927,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14952,19 +14953,19 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15013,7 +15014,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15028,19 +15029,19 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15048,14 +15049,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -15074,19 +15075,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -15135,7 +15136,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15150,19 +15151,19 @@
         <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AL103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AN103" t="s" s="2">
+      <c r="AO103" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15170,10 +15171,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15196,16 +15197,16 @@
         <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15255,7 +15256,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15276,13 +15277,13 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15290,10 +15291,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15316,19 +15317,19 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15377,7 +15378,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15392,19 +15393,19 @@
         <v>170</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AL105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM105" t="s" s="2">
+      <c r="AN105" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AN105" t="s" s="2">
+      <c r="AO105" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15412,10 +15413,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15438,19 +15439,19 @@
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15487,7 +15488,7 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15497,7 +15498,7 @@
         <v>146</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15506,7 +15507,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>105</v>
@@ -15515,30 +15516,30 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15560,19 +15561,19 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15621,7 +15622,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15630,36 +15631,36 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AJ107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
+      <c r="AM107" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AM107" t="s" s="2">
+      <c r="AN107" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AN107" t="s" s="2">
+      <c r="AO107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP107" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15682,13 +15683,13 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15739,7 +15740,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15774,10 +15775,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15806,7 +15807,7 @@
         <v>141</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>143</v>
@@ -15859,7 +15860,7 @@
         <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15894,10 +15895,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15920,19 +15921,19 @@
         <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15981,7 +15982,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -16002,10 +16003,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -16016,10 +16017,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B111" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16045,22 +16046,22 @@
         <v>115</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O111" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="N111" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O111" t="s" s="2">
+      <c r="P111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q111" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q111" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="R111" t="s" s="2">
         <v>82</v>
@@ -16084,28 +16085,28 @@
         <v>188</v>
       </c>
       <c r="Y111" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z111" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z111" t="s" s="2">
+      <c r="AA111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF111" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16126,10 +16127,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN111" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16140,10 +16141,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B112" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16166,19 +16167,19 @@
         <v>93</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O112" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -16227,7 +16228,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16248,10 +16249,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16262,10 +16263,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16291,74 +16292,74 @@
         <v>108</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF113" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="S113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF113" t="s" s="2">
+      <c r="AG113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI113" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16370,10 +16371,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16384,10 +16385,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16413,16 +16414,16 @@
         <v>115</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M114" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16450,28 +16451,28 @@
         <v>188</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Z114" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="Z114" t="s" s="2">
+      <c r="AA114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF114" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16492,10 +16493,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16506,10 +16507,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16535,16 +16536,16 @@
         <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16569,40 +16570,40 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Y115" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Y115" t="s" s="2">
+      <c r="Z115" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Z115" t="s" s="2">
+      <c r="AA115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI115" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -16617,7 +16618,7 @@
         <v>106</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16628,14 +16629,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16657,16 +16658,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16691,14 +16692,14 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Z116" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="Z116" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16715,7 +16716,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16733,27 +16734,27 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM116" t="s" s="2">
+      <c r="AN116" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AN116" t="s" s="2">
+      <c r="AO116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP116" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16776,19 +16777,19 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16837,7 +16838,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16858,10 +16859,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16872,10 +16873,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16901,13 +16902,13 @@
         <v>198</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16933,14 +16934,14 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y118" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Z118" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="Z118" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16957,7 +16958,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16975,27 +16976,27 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AN118" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN118" t="s" s="2">
+      <c r="AO118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP118" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17021,16 +17022,16 @@
         <v>198</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="N119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17055,14 +17056,14 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y119" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z119" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="Z119" t="s" s="2">
-        <v>559</v>
-      </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
       </c>
@@ -17079,7 +17080,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17100,10 +17101,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -17114,10 +17115,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17140,16 +17141,16 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17199,7 +17200,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17217,27 +17218,27 @@
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="AM120" t="s" s="2">
+      <c r="AN120" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="AO120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP120" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>570</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17260,16 +17261,16 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17319,7 +17320,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17337,27 +17338,27 @@
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AM121" t="s" s="2">
+      <c r="AN121" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AN121" t="s" s="2">
+      <c r="AO121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP121" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>579</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17380,19 +17381,19 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17441,7 +17442,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17453,19 +17454,19 @@
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="AK122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17476,10 +17477,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17502,13 +17503,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17559,7 +17560,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17594,10 +17595,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17626,7 +17627,7 @@
         <v>141</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>143</v>
@@ -17679,7 +17680,7 @@
         <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17714,14 +17715,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17743,10 +17744,10 @@
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
@@ -17801,7 +17802,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17836,10 +17837,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17862,16 +17863,16 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17921,7 +17922,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17930,22 +17931,22 @@
         <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="AJ126" t="s" s="2">
+      <c r="AK126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM126" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AK126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM126" t="s" s="2">
+      <c r="AN126" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17956,10 +17957,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17982,16 +17983,16 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M127" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="N127" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -18041,7 +18042,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18050,22 +18051,22 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="AJ127" t="s" s="2">
+      <c r="AK127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM127" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AK127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="AN127" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -18076,10 +18077,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18105,16 +18106,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="N128" t="s" s="2">
+      <c r="O128" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18142,11 +18143,11 @@
         <v>119</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="Z128" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="Z128" t="s" s="2">
-        <v>615</v>
-      </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
       </c>
@@ -18163,7 +18164,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18181,13 +18182,13 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AM128" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AM128" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="AN128" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18198,10 +18199,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18227,16 +18228,16 @@
         <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18261,14 +18262,14 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y129" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z129" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="Z129" t="s" s="2">
-        <v>624</v>
-      </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
       </c>
@@ -18285,7 +18286,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18303,13 +18304,13 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AM129" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="AN129" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18320,10 +18321,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18346,19 +18347,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18407,7 +18408,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18419,19 +18420,19 @@
         <v>104</v>
       </c>
       <c r="AJ130" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AK130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM130" t="s" s="2">
+      <c r="AN130" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18442,10 +18443,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18468,16 +18469,16 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="M131" t="s" s="2">
-        <v>636</v>
-      </c>
       <c r="N131" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -18527,7 +18528,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18548,10 +18549,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18562,10 +18563,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18588,16 +18589,16 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18647,7 +18648,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18668,10 +18669,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AN132" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18682,10 +18683,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18708,16 +18709,16 @@
         <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18767,7 +18768,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18788,10 +18789,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18802,10 +18803,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18813,7 +18814,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>81</v>
@@ -18828,19 +18829,19 @@
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="N134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18877,7 +18878,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>205</v>
+        <v>656</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -18887,7 +18888,7 @@
         <v>146</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18948,13 +18949,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19005,7 +19006,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19072,7 +19073,7 @@
         <v>141</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N136" t="s" s="2">
         <v>143</v>
@@ -19125,7 +19126,7 @@
         <v>146</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19167,7 +19168,7 @@
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19189,10 +19190,10 @@
         <v>140</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>143</v>
@@ -19247,7 +19248,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19320,7 +19321,7 @@
         <v>665</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19345,13 +19346,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y138" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Y138" t="s" s="2">
+      <c r="Z138" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19390,13 +19391,13 @@
         <v>666</v>
       </c>
       <c r="AM138" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN138" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN138" t="s" s="2">
+      <c r="AO138" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19430,19 +19431,19 @@
         <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L139" t="s" s="2">
         <v>668</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N139" t="s" s="2">
         <v>669</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19512,16 +19513,16 @@
         <v>670</v>
       </c>
       <c r="AM139" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN139" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AN139" t="s" s="2">
+      <c r="AO139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP139" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP139" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="140" hidden="true">
@@ -19564,7 +19565,7 @@
         <v>674</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19589,13 +19590,13 @@
         <v>82</v>
       </c>
       <c r="X140" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Y140" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Y140" t="s" s="2">
+      <c r="Z140" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19622,7 +19623,7 @@
         <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>105</v>
@@ -19637,7 +19638,7 @@
         <v>106</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19655,7 +19656,7 @@
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19677,16 +19678,16 @@
         <v>198</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19711,13 +19712,13 @@
         <v>82</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y141" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Z141" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
@@ -19753,19 +19754,19 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM141" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM141" t="s" s="2">
+      <c r="AN141" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AN141" t="s" s="2">
+      <c r="AO141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP141" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP141" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="142" hidden="true">
@@ -19805,10 +19806,10 @@
         <v>678</v>
       </c>
       <c r="N142" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O142" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19878,10 +19879,10 @@
         <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN142" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
@@ -19895,7 +19896,7 @@
         <v>679</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>680</v>
@@ -19920,19 +19921,19 @@
         <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="N143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -19981,7 +19982,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20042,13 +20043,13 @@
         <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20099,7 +20100,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20166,7 +20167,7 @@
         <v>141</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>143</v>
@@ -20219,7 +20220,7 @@
         <v>146</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20261,7 +20262,7 @@
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -20283,10 +20284,10 @@
         <v>140</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="N146" t="s" s="2">
         <v>143</v>
@@ -20341,7 +20342,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20414,7 +20415,7 @@
         <v>665</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20439,13 +20440,13 @@
         <v>82</v>
       </c>
       <c r="X147" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y147" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Y147" t="s" s="2">
+      <c r="Z147" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>82</v>
@@ -20484,13 +20485,13 @@
         <v>666</v>
       </c>
       <c r="AM147" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN147" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN147" t="s" s="2">
+      <c r="AO147" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AO147" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20524,13 +20525,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20581,7 +20582,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20648,7 +20649,7 @@
         <v>141</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N149" t="s" s="2">
         <v>143</v>
@@ -20701,7 +20702,7 @@
         <v>146</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20762,19 +20763,19 @@
         <v>93</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N150" t="s" s="2">
+      <c r="O150" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20823,7 +20824,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20844,10 +20845,10 @@
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN150" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
@@ -20884,13 +20885,13 @@
         <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -20941,7 +20942,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21008,7 +21009,7 @@
         <v>141</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N152" t="s" s="2">
         <v>143</v>
@@ -21061,7 +21062,7 @@
         <v>146</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21125,23 +21126,23 @@
         <v>108</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N153" t="s" s="2">
+      <c r="O153" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>82</v>
@@ -21183,7 +21184,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21204,10 +21205,10 @@
         <v>82</v>
       </c>
       <c r="AM153" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN153" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
@@ -21244,16 +21245,16 @@
         <v>93</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -21303,7 +21304,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21324,10 +21325,10 @@
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN154" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN154" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>82</v>
@@ -21370,13 +21371,13 @@
         <v>701</v>
       </c>
       <c r="M155" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21425,7 +21426,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21446,10 +21447,10 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN155" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>82</v>
@@ -21486,19 +21487,19 @@
         <v>93</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O156" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21547,7 +21548,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21568,10 +21569,10 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN156" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>82</v>
@@ -21608,19 +21609,19 @@
         <v>93</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L157" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="M157" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21669,7 +21670,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21690,10 +21691,10 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN157" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>82</v>
@@ -21730,19 +21731,19 @@
         <v>93</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -21791,7 +21792,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21812,10 +21813,10 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN158" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>82</v>
@@ -21858,13 +21859,13 @@
         <v>710</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>669</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -21934,16 +21935,16 @@
         <v>670</v>
       </c>
       <c r="AM159" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN159" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AN159" t="s" s="2">
+      <c r="AO159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP159" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AO159" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP159" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="160" hidden="true">
@@ -21986,7 +21987,7 @@
         <v>674</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22011,13 +22012,13 @@
         <v>82</v>
       </c>
       <c r="X160" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Y160" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Y160" t="s" s="2">
+      <c r="Z160" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22044,7 +22045,7 @@
         <v>92</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>105</v>
@@ -22059,7 +22060,7 @@
         <v>106</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -22077,7 +22078,7 @@
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
@@ -22099,16 +22100,16 @@
         <v>198</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N161" t="s" s="2">
+      <c r="O161" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22133,13 +22134,13 @@
         <v>82</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y161" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Z161" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22175,19 +22176,19 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM161" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM161" t="s" s="2">
+      <c r="AN161" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AN161" t="s" s="2">
+      <c r="AO161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP161" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AO161" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP161" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="162" hidden="true">
@@ -22227,10 +22228,10 @@
         <v>678</v>
       </c>
       <c r="N162" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O162" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22300,10 +22301,10 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN162" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="AN162" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
@@ -22317,7 +22318,7 @@
         <v>715</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>716</v>
@@ -22342,19 +22343,19 @@
         <v>93</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22403,7 +22404,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22464,13 +22465,13 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="M164" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -22521,7 +22522,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22588,7 +22589,7 @@
         <v>141</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N165" t="s" s="2">
         <v>143</v>
@@ -22641,7 +22642,7 @@
         <v>146</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22683,7 +22684,7 @@
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -22705,10 +22706,10 @@
         <v>140</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>143</v>
@@ -22763,7 +22764,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22836,7 +22837,7 @@
         <v>665</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -22861,13 +22862,13 @@
         <v>82</v>
       </c>
       <c r="X167" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y167" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Y167" t="s" s="2">
+      <c r="Z167" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>82</v>
@@ -22906,13 +22907,13 @@
         <v>666</v>
       </c>
       <c r="AM167" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN167" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN167" t="s" s="2">
+      <c r="AO167" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AO167" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -22946,13 +22947,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23003,7 +23004,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23070,7 +23071,7 @@
         <v>141</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>143</v>
@@ -23123,7 +23124,7 @@
         <v>146</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23184,19 +23185,19 @@
         <v>93</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L170" t="s" s="2">
+      <c r="M170" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M170" t="s" s="2">
+      <c r="N170" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N170" t="s" s="2">
+      <c r="O170" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23245,7 +23246,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23266,10 +23267,10 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN170" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN170" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>82</v>
@@ -23306,13 +23307,13 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="M171" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -23363,7 +23364,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23430,7 +23431,7 @@
         <v>141</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>143</v>
@@ -23483,7 +23484,7 @@
         <v>146</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23547,16 +23548,16 @@
         <v>108</v>
       </c>
       <c r="L173" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N173" t="s" s="2">
+      <c r="O173" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23605,7 +23606,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23626,10 +23627,10 @@
         <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN173" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN173" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>82</v>
@@ -23666,16 +23667,16 @@
         <v>93</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L174" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23725,7 +23726,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23746,10 +23747,10 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN174" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN174" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
@@ -23789,16 +23790,16 @@
         <v>115</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N175" t="s" s="2">
+      <c r="O175" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -23847,7 +23848,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23868,10 +23869,10 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN175" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN175" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>82</v>
@@ -23908,19 +23909,19 @@
         <v>93</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M176" t="s" s="2">
+      <c r="N176" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O176" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -23969,7 +23970,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23990,10 +23991,10 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN176" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN176" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>82</v>
@@ -24030,19 +24031,19 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N177" t="s" s="2">
+      <c r="O177" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24091,7 +24092,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24112,10 +24113,10 @@
         <v>82</v>
       </c>
       <c r="AM177" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN177" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN177" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>82</v>
@@ -24152,19 +24153,19 @@
         <v>93</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N178" t="s" s="2">
+      <c r="O178" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24213,7 +24214,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24234,10 +24235,10 @@
         <v>82</v>
       </c>
       <c r="AM178" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN178" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN178" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>82</v>
@@ -24280,13 +24281,13 @@
         <v>668</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N179" t="s" s="2">
         <v>669</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24356,16 +24357,16 @@
         <v>670</v>
       </c>
       <c r="AM179" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN179" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AN179" t="s" s="2">
+      <c r="AO179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP179" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AO179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP179" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="180" hidden="true">
@@ -24396,13 +24397,13 @@
         <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -24453,7 +24454,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24520,7 +24521,7 @@
         <v>141</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N181" t="s" s="2">
         <v>143</v>
@@ -24573,7 +24574,7 @@
         <v>146</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24764,7 +24765,7 @@
         <v>674</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -24789,13 +24790,13 @@
         <v>82</v>
       </c>
       <c r="X183" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Y183" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Y183" t="s" s="2">
+      <c r="Z183" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>82</v>
@@ -24822,7 +24823,7 @@
         <v>92</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>105</v>
@@ -24837,7 +24838,7 @@
         <v>106</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>82</v>
@@ -24855,7 +24856,7 @@
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
@@ -24877,16 +24878,16 @@
         <v>198</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N184" t="s" s="2">
+      <c r="O184" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -24911,13 +24912,13 @@
         <v>82</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y184" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Z184" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="Z184" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>82</v>
@@ -24953,19 +24954,19 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM184" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM184" t="s" s="2">
+      <c r="AN184" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AN184" t="s" s="2">
+      <c r="AO184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP184" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AO184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP184" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="185" hidden="true">
@@ -25005,10 +25006,10 @@
         <v>678</v>
       </c>
       <c r="N185" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O185" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
@@ -25078,10 +25079,10 @@
         <v>82</v>
       </c>
       <c r="AM185" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN185" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="AN185" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="749">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the component.coding value for add a further value.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -4485,7 +4488,7 @@
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4509,13 +4512,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4523,13 +4526,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4633,13 +4636,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4647,10 +4650,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4673,13 +4676,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4730,7 +4733,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4765,10 +4768,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4797,7 +4800,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4850,7 +4853,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4885,10 +4888,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4896,13 +4899,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4911,19 +4914,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4972,7 +4975,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4993,10 +4996,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -5007,10 +5010,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -5033,13 +5036,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5090,7 +5093,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -5125,10 +5128,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5157,7 +5160,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -5210,7 +5213,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5245,10 +5248,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5256,13 +5259,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5274,23 +5277,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -5332,7 +5335,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5353,10 +5356,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5367,10 +5370,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5393,16 +5396,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5452,7 +5455,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5473,10 +5476,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5487,10 +5490,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5498,13 +5501,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5516,23 +5519,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5574,7 +5577,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5595,10 +5598,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5609,10 +5612,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5635,19 +5638,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5696,7 +5699,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5717,10 +5720,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5731,10 +5734,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5757,19 +5760,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5818,7 +5821,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5839,10 +5842,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5853,10 +5856,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5879,19 +5882,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5940,7 +5943,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5961,10 +5964,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5975,13 +5978,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -6085,13 +6088,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -6099,10 +6102,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6125,13 +6128,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6182,7 +6185,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6217,10 +6220,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6249,7 +6252,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6302,7 +6305,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6337,10 +6340,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6348,13 +6351,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6363,19 +6366,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6424,7 +6427,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6445,10 +6448,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6459,10 +6462,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6485,13 +6488,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6542,7 +6545,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6577,10 +6580,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6609,7 +6612,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6662,7 +6665,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6697,10 +6700,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6708,13 +6711,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6726,23 +6729,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6784,7 +6787,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6805,10 +6808,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6819,10 +6822,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6845,16 +6848,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6904,7 +6907,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6925,10 +6928,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6939,10 +6942,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6950,13 +6953,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6968,23 +6971,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -7026,7 +7029,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -7047,10 +7050,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -7061,10 +7064,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7087,19 +7090,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -7148,7 +7151,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -7169,10 +7172,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -7183,10 +7186,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7209,19 +7212,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7270,7 +7273,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7291,10 +7294,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7305,10 +7308,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7331,19 +7334,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7392,7 +7395,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7413,10 +7416,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7427,13 +7430,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7537,13 +7540,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7551,10 +7554,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7577,13 +7580,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7634,7 +7637,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7669,10 +7672,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7701,7 +7704,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7754,7 +7757,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7789,10 +7792,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7800,13 +7803,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7815,19 +7818,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7876,7 +7879,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7897,10 +7900,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7911,10 +7914,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7937,13 +7940,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7994,7 +7997,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -8029,10 +8032,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8061,7 +8064,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -8114,7 +8117,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -8149,10 +8152,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8160,13 +8163,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8178,23 +8181,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -8236,7 +8239,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8257,10 +8260,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8271,10 +8274,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8297,16 +8300,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8356,7 +8359,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8377,10 +8380,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8391,10 +8394,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8402,13 +8405,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8420,23 +8423,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8478,7 +8481,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8499,10 +8502,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8513,10 +8516,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8539,19 +8542,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8600,7 +8603,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8621,10 +8624,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8635,10 +8638,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8661,19 +8664,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8722,7 +8725,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8743,10 +8746,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8757,10 +8760,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8783,19 +8786,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8844,7 +8847,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8865,10 +8868,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8879,13 +8882,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8989,13 +8992,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -9003,10 +9006,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9029,13 +9032,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -9086,7 +9089,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9121,10 +9124,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9153,7 +9156,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -9206,7 +9209,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9241,10 +9244,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9252,13 +9255,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9267,19 +9270,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9328,7 +9331,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9349,10 +9352,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9363,10 +9366,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9389,13 +9392,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9446,7 +9449,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9481,10 +9484,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9513,7 +9516,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9566,7 +9569,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9601,10 +9604,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9612,13 +9615,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9630,23 +9633,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9688,7 +9691,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9709,10 +9712,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9723,10 +9726,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9749,16 +9752,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9808,7 +9811,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9829,10 +9832,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9843,10 +9846,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9854,13 +9857,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -9872,23 +9875,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9930,7 +9933,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9951,10 +9954,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9965,10 +9968,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9991,19 +9994,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -10052,7 +10055,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10073,10 +10076,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -10087,10 +10090,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10113,19 +10116,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -10174,7 +10177,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10195,10 +10198,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -10209,10 +10212,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10235,19 +10238,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10296,7 +10299,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10317,10 +10320,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10331,13 +10334,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10441,13 +10444,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10455,10 +10458,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10481,13 +10484,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10538,7 +10541,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10573,10 +10576,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10605,7 +10608,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10658,7 +10661,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10693,10 +10696,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10704,13 +10707,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10719,19 +10722,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10780,7 +10783,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10801,10 +10804,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10815,10 +10818,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10841,13 +10844,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10898,7 +10901,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10933,10 +10936,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10965,7 +10968,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -11018,7 +11021,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -11053,10 +11056,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11064,13 +11067,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -11082,23 +11085,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -11140,7 +11143,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -11161,10 +11164,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -11175,10 +11178,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11201,16 +11204,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11260,7 +11263,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11281,10 +11284,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11295,10 +11298,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11306,13 +11309,13 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -11324,23 +11327,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11382,7 +11385,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11403,10 +11406,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11417,10 +11420,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11443,19 +11446,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11504,7 +11507,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11525,10 +11528,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11539,10 +11542,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11565,19 +11568,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11626,7 +11629,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11647,10 +11650,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11661,10 +11664,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11687,19 +11690,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11748,7 +11751,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11769,10 +11772,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11783,13 +11786,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
@@ -11893,13 +11896,13 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11907,10 +11910,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11933,13 +11936,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11990,7 +11993,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -12025,10 +12028,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12057,7 +12060,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -12110,7 +12113,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -12145,10 +12148,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12156,13 +12159,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12171,19 +12174,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12232,7 +12235,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12253,10 +12256,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12267,10 +12270,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12293,13 +12296,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12350,7 +12353,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12385,10 +12388,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12417,7 +12420,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12470,7 +12473,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12505,10 +12508,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12516,13 +12519,13 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12534,23 +12537,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12592,7 +12595,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12613,10 +12616,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12627,10 +12630,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12653,16 +12656,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12712,7 +12715,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12733,10 +12736,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12747,10 +12750,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12758,13 +12761,13 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
@@ -12776,23 +12779,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12834,7 +12837,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12855,10 +12858,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12869,10 +12872,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12895,19 +12898,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12956,7 +12959,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12977,10 +12980,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12991,10 +12994,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13017,19 +13020,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -13078,7 +13081,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13099,10 +13102,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -13113,10 +13116,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13139,19 +13142,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -13200,7 +13203,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13221,10 +13224,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13235,14 +13238,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -13264,16 +13267,16 @@
         <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13298,13 +13301,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13322,7 +13325,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>92</v>
@@ -13337,30 +13340,30 @@
         <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13383,13 +13386,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13440,7 +13443,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13475,10 +13478,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13507,7 +13510,7 @@
         <v>141</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>143</v>
@@ -13560,7 +13563,7 @@
         <v>146</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13595,10 +13598,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13621,19 +13624,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13682,7 +13685,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13703,10 +13706,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13717,10 +13720,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13743,13 +13746,13 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13800,7 +13803,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13835,10 +13838,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13867,7 +13870,7 @@
         <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>143</v>
@@ -13920,7 +13923,7 @@
         <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13955,10 +13958,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13984,23 +13987,23 @@
         <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -14042,7 +14045,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -14063,10 +14066,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -14077,10 +14080,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14103,16 +14106,16 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14162,7 +14165,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -14183,10 +14186,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14197,10 +14200,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14226,23 +14229,23 @@
         <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -14284,7 +14287,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14305,10 +14308,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14319,10 +14322,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14345,19 +14348,19 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14406,7 +14409,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14427,10 +14430,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14441,10 +14444,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14467,19 +14470,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14528,7 +14531,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14549,10 +14552,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14563,10 +14566,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14589,19 +14592,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14611,7 +14614,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14650,7 +14653,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14671,10 +14674,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14685,10 +14688,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14711,19 +14714,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14772,7 +14775,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14787,19 +14790,19 @@
         <v>170</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14807,10 +14810,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14833,16 +14836,16 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14892,7 +14895,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14913,13 +14916,13 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14927,14 +14930,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14953,19 +14956,19 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15014,7 +15017,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15029,19 +15032,19 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15049,14 +15052,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -15075,19 +15078,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -15136,7 +15139,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15151,19 +15154,19 @@
         <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15171,10 +15174,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15197,16 +15200,16 @@
         <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15256,7 +15259,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15277,13 +15280,13 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15291,10 +15294,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15317,19 +15320,19 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15378,7 +15381,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15393,19 +15396,19 @@
         <v>170</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15413,10 +15416,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15439,19 +15442,19 @@
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15488,7 +15491,7 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15498,7 +15501,7 @@
         <v>146</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15507,7 +15510,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>105</v>
@@ -15516,30 +15519,30 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15561,19 +15564,19 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15622,7 +15625,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15631,7 +15634,7 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>82</v>
@@ -15640,27 +15643,27 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15683,13 +15686,13 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15740,7 +15743,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15775,10 +15778,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15807,7 +15810,7 @@
         <v>141</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>143</v>
@@ -15860,7 +15863,7 @@
         <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15895,10 +15898,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15921,19 +15924,19 @@
         <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15982,7 +15985,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -16003,10 +16006,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -16017,10 +16020,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16046,22 +16049,22 @@
         <v>115</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q111" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="R111" t="s" s="2">
         <v>82</v>
@@ -16085,10 +16088,10 @@
         <v>188</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -16106,7 +16109,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16127,10 +16130,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16141,10 +16144,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16167,19 +16170,19 @@
         <v>93</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -16228,7 +16231,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16249,10 +16252,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16263,10 +16266,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16292,23 +16295,23 @@
         <v>108</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>82</v>
@@ -16350,7 +16353,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16359,7 +16362,7 @@
         <v>92</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16371,10 +16374,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16385,10 +16388,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16414,16 +16417,16 @@
         <v>115</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16451,10 +16454,10 @@
         <v>188</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16472,7 +16475,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16493,10 +16496,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16507,10 +16510,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16536,16 +16539,16 @@
         <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16570,13 +16573,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16594,7 +16597,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16603,7 +16606,7 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -16618,7 +16621,7 @@
         <v>106</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16629,14 +16632,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16658,16 +16661,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16692,13 +16695,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16716,7 +16719,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16734,27 +16737,27 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16777,19 +16780,19 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16838,7 +16841,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16859,10 +16862,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16873,10 +16876,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16902,13 +16905,13 @@
         <v>198</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16934,13 +16937,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16958,7 +16961,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16976,27 +16979,27 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17022,16 +17025,16 @@
         <v>198</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17056,13 +17059,13 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -17080,7 +17083,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17101,10 +17104,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -17115,10 +17118,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17141,16 +17144,16 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17200,7 +17203,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17218,27 +17221,27 @@
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17261,16 +17264,16 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17320,7 +17323,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17338,27 +17341,27 @@
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17381,19 +17384,19 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17442,7 +17445,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17454,7 +17457,7 @@
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17463,10 +17466,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17477,10 +17480,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17503,13 +17506,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17560,7 +17563,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17595,10 +17598,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17627,7 +17630,7 @@
         <v>141</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>143</v>
@@ -17680,7 +17683,7 @@
         <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17715,14 +17718,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17744,10 +17747,10 @@
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
@@ -17802,7 +17805,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17837,10 +17840,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17863,16 +17866,16 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17922,7 +17925,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17931,10 +17934,10 @@
         <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
@@ -17943,10 +17946,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17957,10 +17960,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17983,16 +17986,16 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -18042,7 +18045,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18051,10 +18054,10 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -18063,10 +18066,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -18077,10 +18080,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18106,16 +18109,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18143,10 +18146,10 @@
         <v>119</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18164,7 +18167,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18182,13 +18185,13 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18199,10 +18202,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18228,16 +18231,16 @@
         <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18262,13 +18265,13 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18286,7 +18289,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18304,13 +18307,13 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18321,10 +18324,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18347,19 +18350,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18408,7 +18411,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18420,7 +18423,7 @@
         <v>104</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
@@ -18429,10 +18432,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18443,10 +18446,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18469,16 +18472,16 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -18528,7 +18531,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18549,10 +18552,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18563,10 +18566,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18589,16 +18592,16 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18648,7 +18651,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18669,10 +18672,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18683,10 +18686,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18709,16 +18712,16 @@
         <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18768,7 +18771,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18789,10 +18792,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18803,10 +18806,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18814,7 +18817,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>81</v>
@@ -18829,19 +18832,19 @@
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18878,7 +18881,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -18888,7 +18891,7 @@
         <v>146</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18909,10 +18912,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18923,10 +18926,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18949,13 +18952,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19006,7 +19009,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19041,10 +19044,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19073,7 +19076,7 @@
         <v>141</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N136" t="s" s="2">
         <v>143</v>
@@ -19126,7 +19129,7 @@
         <v>146</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19161,14 +19164,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19190,10 +19193,10 @@
         <v>140</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>143</v>
@@ -19248,7 +19251,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19283,10 +19286,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19312,16 +19315,16 @@
         <v>198</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19346,13 +19349,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19370,7 +19373,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>92</v>
@@ -19388,16 +19391,16 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19405,10 +19408,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19431,19 +19434,19 @@
         <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19492,7 +19495,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19510,27 +19513,27 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19556,16 +19559,16 @@
         <v>198</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19590,13 +19593,13 @@
         <v>82</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19614,7 +19617,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19623,7 +19626,7 @@
         <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>105</v>
@@ -19638,7 +19641,7 @@
         <v>106</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19649,14 +19652,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19678,16 +19681,16 @@
         <v>198</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19712,13 +19715,13 @@
         <v>82</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
@@ -19736,7 +19739,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19754,27 +19757,27 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19800,16 +19803,16 @@
         <v>83</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19858,7 +19861,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19879,10 +19882,10 @@
         <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
@@ -19893,13 +19896,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -19921,19 +19924,19 @@
         <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -19982,7 +19985,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20003,10 +20006,10 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>82</v>
@@ -20017,10 +20020,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20043,13 +20046,13 @@
         <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20100,7 +20103,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20135,10 +20138,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20167,7 +20170,7 @@
         <v>141</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>143</v>
@@ -20220,7 +20223,7 @@
         <v>146</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20255,14 +20258,14 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -20284,10 +20287,10 @@
         <v>140</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N146" t="s" s="2">
         <v>143</v>
@@ -20342,7 +20345,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20377,10 +20380,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20406,16 +20409,16 @@
         <v>198</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20440,13 +20443,13 @@
         <v>82</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>82</v>
@@ -20464,7 +20467,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>92</v>
@@ -20482,16 +20485,16 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20499,10 +20502,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20525,13 +20528,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20582,7 +20585,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20617,10 +20620,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20649,7 +20652,7 @@
         <v>141</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N149" t="s" s="2">
         <v>143</v>
@@ -20702,7 +20705,7 @@
         <v>146</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20737,10 +20740,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20763,19 +20766,19 @@
         <v>93</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20824,7 +20827,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20845,10 +20848,10 @@
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
@@ -20859,10 +20862,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20885,13 +20888,13 @@
         <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -20942,7 +20945,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20977,10 +20980,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21009,7 +21012,7 @@
         <v>141</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N152" t="s" s="2">
         <v>143</v>
@@ -21062,7 +21065,7 @@
         <v>146</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21097,10 +21100,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21126,23 +21129,23 @@
         <v>108</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>82</v>
@@ -21184,7 +21187,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21205,10 +21208,10 @@
         <v>82</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
@@ -21219,10 +21222,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21245,16 +21248,16 @@
         <v>93</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -21304,7 +21307,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21325,10 +21328,10 @@
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>82</v>
@@ -21339,10 +21342,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21368,23 +21371,23 @@
         <v>115</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q155" s="2"/>
       <c r="R155" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="S155" t="s" s="2">
         <v>82</v>
@@ -21426,7 +21429,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21447,10 +21450,10 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>82</v>
@@ -21461,10 +21464,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21487,19 +21490,19 @@
         <v>93</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21548,7 +21551,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21569,10 +21572,10 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>82</v>
@@ -21583,10 +21586,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21609,19 +21612,19 @@
         <v>93</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21670,7 +21673,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21691,10 +21694,10 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>82</v>
@@ -21705,10 +21708,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21731,19 +21734,19 @@
         <v>93</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -21792,7 +21795,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21813,10 +21816,10 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>82</v>
@@ -21827,10 +21830,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21856,23 +21859,23 @@
         <v>198</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>82</v>
@@ -21914,7 +21917,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21932,27 +21935,27 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP159" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21978,16 +21981,16 @@
         <v>198</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22012,13 +22015,13 @@
         <v>82</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22036,7 +22039,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22045,7 +22048,7 @@
         <v>92</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>105</v>
@@ -22060,7 +22063,7 @@
         <v>106</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -22071,14 +22074,14 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
@@ -22100,16 +22103,16 @@
         <v>198</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22134,13 +22137,13 @@
         <v>82</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22158,7 +22161,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22176,27 +22179,27 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP161" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22222,16 +22225,16 @@
         <v>83</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22280,7 +22283,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22301,10 +22304,10 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
@@ -22315,13 +22318,13 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>82</v>
@@ -22343,19 +22346,19 @@
         <v>93</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22404,7 +22407,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22425,10 +22428,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22439,10 +22442,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22465,13 +22468,13 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -22522,7 +22525,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22557,10 +22560,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22589,7 +22592,7 @@
         <v>141</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N165" t="s" s="2">
         <v>143</v>
@@ -22642,7 +22645,7 @@
         <v>146</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22677,14 +22680,14 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -22706,10 +22709,10 @@
         <v>140</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>143</v>
@@ -22764,7 +22767,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22799,10 +22802,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22828,16 +22831,16 @@
         <v>198</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -22862,13 +22865,13 @@
         <v>82</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>82</v>
@@ -22886,7 +22889,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>92</v>
@@ -22904,16 +22907,16 @@
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -22921,10 +22924,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22947,13 +22950,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23004,7 +23007,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23039,10 +23042,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23071,7 +23074,7 @@
         <v>141</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>143</v>
@@ -23124,7 +23127,7 @@
         <v>146</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23159,10 +23162,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23185,19 +23188,19 @@
         <v>93</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23246,7 +23249,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23267,10 +23270,10 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>82</v>
@@ -23281,10 +23284,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23307,13 +23310,13 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -23364,7 +23367,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23399,10 +23402,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23431,7 +23434,7 @@
         <v>141</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>143</v>
@@ -23484,7 +23487,7 @@
         <v>146</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23519,10 +23522,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23548,23 +23551,23 @@
         <v>108</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q173" s="2"/>
       <c r="R173" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="S173" t="s" s="2">
         <v>82</v>
@@ -23606,7 +23609,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23627,10 +23630,10 @@
         <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>82</v>
@@ -23641,10 +23644,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23667,16 +23670,16 @@
         <v>93</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23726,7 +23729,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23747,10 +23750,10 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
@@ -23761,10 +23764,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23790,23 +23793,23 @@
         <v>115</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>82</v>
@@ -23848,7 +23851,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23869,10 +23872,10 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>82</v>
@@ -23883,10 +23886,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23909,19 +23912,19 @@
         <v>93</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -23970,7 +23973,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23991,10 +23994,10 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>82</v>
@@ -24005,10 +24008,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24031,19 +24034,19 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24092,7 +24095,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24113,10 +24116,10 @@
         <v>82</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>82</v>
@@ -24127,10 +24130,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24153,19 +24156,19 @@
         <v>93</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24214,7 +24217,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24235,10 +24238,10 @@
         <v>82</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>82</v>
@@ -24249,10 +24252,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24275,19 +24278,19 @@
         <v>93</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24336,7 +24339,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24354,27 +24357,27 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP179" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24397,13 +24400,13 @@
         <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -24454,7 +24457,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24489,10 +24492,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24521,7 +24524,7 @@
         <v>141</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N181" t="s" s="2">
         <v>143</v>
@@ -24574,7 +24577,7 @@
         <v>146</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24609,10 +24612,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24635,13 +24638,13 @@
         <v>82</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -24692,7 +24695,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24727,10 +24730,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24756,16 +24759,16 @@
         <v>198</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -24790,13 +24793,13 @@
         <v>82</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>82</v>
@@ -24814,7 +24817,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24823,7 +24826,7 @@
         <v>92</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>105</v>
@@ -24838,7 +24841,7 @@
         <v>106</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>82</v>
@@ -24849,14 +24852,14 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
@@ -24878,16 +24881,16 @@
         <v>198</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -24912,13 +24915,13 @@
         <v>82</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>82</v>
@@ -24936,7 +24939,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -24954,27 +24957,27 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP184" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25000,16 +25003,16 @@
         <v>83</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
@@ -25058,7 +25061,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25079,10 +25082,10 @@
         <v>82</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$173</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6697" uniqueCount="735">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dieses CDE enthält das Alter einer Person zum Zeitpunkt der Diagnose 'Essenzielle (primäre) Hypertonie'.</t>
+    <t>Dieses CDE enthält das 'Alter zum Zeitpunkt der Diagnose Essenzielle (primäre) Hypertonie'.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -632,7 +632,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>6</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the component.coding value for add a further value.</t>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -1091,48 +1091,6 @@
   </si>
   <si>
     <t>Observation.category:Age.text</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis</t>
-  </si>
-  <si>
-    <t>AgeAtDiagnosis</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.id</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.coding.code</t>
-  </si>
-  <si>
-    <t>NCIT_C156420</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:AgeAtDiagnosis.text</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -2658,7 +2616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP185"/>
+  <dimension ref="A1:AP173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2695,7 +2653,7 @@
     <col min="26" max="26" width="68.2421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="61.01171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4485,7 +4443,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>
@@ -11789,13 +11747,11 @@
         <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C76" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11811,22 +11767,22 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>199</v>
+        <v>351</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>200</v>
+        <v>352</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>202</v>
+        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11851,13 +11807,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>119</v>
+        <v>355</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>203</v>
+        <v>356</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>204</v>
+        <v>357</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11875,13 +11831,13 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>196</v>
+        <v>349</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>104</v>
@@ -11890,30 +11846,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>208</v>
+        <v>360</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>209</v>
+        <v>361</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>364</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12028,10 +11984,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12148,10 +12104,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>224</v>
+        <v>366</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12270,10 +12226,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12388,10 +12344,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12508,10 +12464,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>238</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12525,7 +12481,7 @@
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12553,7 +12509,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12630,10 +12586,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>248</v>
+        <v>371</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12750,10 +12706,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12767,7 +12723,7 @@
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
@@ -12795,7 +12751,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12872,10 +12828,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12994,10 +12950,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>274</v>
+        <v>375</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13116,10 +13072,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13127,13 +13083,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>82</v>
@@ -13164,7 +13120,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -13238,24 +13194,24 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
@@ -13264,19 +13220,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>198</v>
+        <v>378</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13301,13 +13257,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13325,10 +13281,10 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>92</v>
@@ -13337,33 +13293,33 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13374,7 +13330,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -13383,18 +13339,20 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>215</v>
+        <v>388</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>216</v>
+        <v>389</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13443,19 +13401,19 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>387</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -13464,13 +13422,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13478,21 +13436,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>139</v>
+        <v>394</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13501,21 +13459,23 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>141</v>
+        <v>396</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>221</v>
+        <v>397</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13551,46 +13511,46 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>222</v>
+        <v>393</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13598,24 +13558,24 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
@@ -13624,19 +13584,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>225</v>
+        <v>406</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>226</v>
+        <v>407</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>227</v>
+        <v>408</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>228</v>
+        <v>409</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13685,13 +13645,13 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>230</v>
+        <v>404</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>104</v>
@@ -13700,19 +13660,19 @@
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>232</v>
+        <v>413</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13720,10 +13680,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13743,18 +13703,20 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>215</v>
+        <v>416</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>216</v>
+        <v>417</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13803,7 +13765,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13812,10 +13774,10 @@
         <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13824,13 +13786,13 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>113</v>
+        <v>421</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13838,14 +13800,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13861,21 +13823,23 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>140</v>
+        <v>424</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>141</v>
+        <v>425</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13911,19 +13875,19 @@
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13935,22 +13899,22 @@
         <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>106</v>
+        <v>430</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13958,10 +13922,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13969,7 +13933,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>92</v>
@@ -13984,26 +13948,26 @@
         <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>108</v>
+        <v>433</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>239</v>
+        <v>434</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>240</v>
+        <v>435</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>241</v>
+        <v>436</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>242</v>
+        <v>437</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -14033,19 +13997,17 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>244</v>
+        <v>432</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -14054,7 +14016,7 @@
         <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -14063,29 +14025,31 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>246</v>
+        <v>442</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
       </c>
@@ -14106,18 +14070,20 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>215</v>
+        <v>446</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>249</v>
+        <v>434</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>250</v>
+        <v>435</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -14165,7 +14131,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -14174,36 +14140,36 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>253</v>
+        <v>441</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>254</v>
+        <v>442</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14211,7 +14177,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>92</v>
@@ -14223,29 +14189,25 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -14287,7 +14249,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14296,10 +14258,10 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
@@ -14308,10 +14270,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14322,21 +14284,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>388</v>
+        <v>449</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -14345,23 +14307,21 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14397,31 +14357,31 @@
         <v>82</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -14430,10 +14390,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14444,10 +14404,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14455,13 +14415,13 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>82</v>
@@ -14470,19 +14430,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>275</v>
+        <v>453</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>276</v>
+        <v>454</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>277</v>
+        <v>455</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>278</v>
+        <v>456</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>279</v>
+        <v>457</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14531,7 +14491,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>280</v>
+        <v>458</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14552,10 +14512,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>281</v>
+        <v>459</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>282</v>
+        <v>460</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14566,10 +14526,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14577,44 +14537,46 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I99" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>285</v>
+        <v>463</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>286</v>
+        <v>464</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>288</v>
+        <v>465</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="R99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14629,13 +14591,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14653,7 +14615,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>289</v>
+        <v>469</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14674,10 +14636,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14688,10 +14650,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>391</v>
+        <v>472</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14699,13 +14661,13 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>82</v>
@@ -14714,19 +14676,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>392</v>
+        <v>215</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>396</v>
+        <v>476</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14775,7 +14737,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>391</v>
+        <v>477</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14787,22 +14749,22 @@
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14810,10 +14772,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>401</v>
+        <v>481</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14821,13 +14783,13 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>82</v>
@@ -14836,24 +14798,26 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>403</v>
+        <v>482</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>404</v>
+        <v>483</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -14895,19 +14859,19 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>401</v>
+        <v>487</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>104</v>
+        <v>488</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14916,13 +14880,13 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>406</v>
+        <v>489</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14930,24 +14894,24 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>407</v>
+        <v>491</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>82</v>
@@ -14956,19 +14920,19 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>409</v>
+        <v>115</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14993,13 +14957,13 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -15017,7 +14981,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>407</v>
+        <v>497</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15029,22 +14993,22 @@
         <v>104</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>416</v>
+        <v>498</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15052,14 +15016,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -15075,22 +15039,22 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>420</v>
+        <v>198</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>421</v>
+        <v>500</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>423</v>
+        <v>502</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>424</v>
+        <v>503</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -15115,13 +15079,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -15139,7 +15103,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15148,25 +15112,25 @@
         <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>104</v>
+        <v>507</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>426</v>
+        <v>106</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>427</v>
+        <v>508</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15174,21 +15138,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -15197,21 +15161,23 @@
         <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>430</v>
+        <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -15235,13 +15201,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -15259,13 +15225,13 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>104</v>
@@ -15277,27 +15243,27 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>434</v>
+        <v>518</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>435</v>
+        <v>519</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>437</v>
+        <v>521</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>437</v>
+        <v>521</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15317,22 +15283,22 @@
         <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>438</v>
+        <v>522</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>439</v>
+        <v>523</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>440</v>
+        <v>524</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>168</v>
+        <v>525</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>441</v>
+        <v>526</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15381,7 +15347,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>437</v>
+        <v>521</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15393,22 +15359,22 @@
         <v>104</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>443</v>
+        <v>527</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>444</v>
+        <v>528</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15416,10 +15382,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>446</v>
+        <v>529</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>446</v>
+        <v>529</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15439,23 +15405,21 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>447</v>
+        <v>198</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>448</v>
+        <v>530</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>449</v>
+        <v>531</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
@@ -15479,29 +15443,31 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AC106" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>446</v>
+        <v>529</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15510,7 +15476,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>105</v>
@@ -15519,31 +15485,29 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>455</v>
+        <v>536</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>456</v>
+        <v>537</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>457</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>458</v>
+        <v>539</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15561,22 +15525,22 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>460</v>
+        <v>198</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>449</v>
+        <v>541</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>450</v>
+        <v>542</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>451</v>
+        <v>543</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15601,13 +15565,13 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15625,7 +15589,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>446</v>
+        <v>539</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15634,36 +15598,36 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>455</v>
+        <v>546</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>456</v>
+        <v>547</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>461</v>
+        <v>548</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15686,15 +15650,17 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>215</v>
+        <v>549</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>216</v>
+        <v>550</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15743,7 +15709,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>218</v>
+        <v>548</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15752,47 +15718,47 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>82</v>
+        <v>554</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>113</v>
+        <v>555</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>82</v>
+        <v>556</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>463</v>
+        <v>557</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>464</v>
+        <v>557</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15804,16 +15770,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>140</v>
+        <v>558</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>141</v>
+        <v>559</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>221</v>
+        <v>560</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>143</v>
+        <v>561</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15851,57 +15817,57 @@
         <v>82</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>222</v>
+        <v>557</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>82</v>
+        <v>563</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>106</v>
+        <v>564</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>466</v>
+        <v>566</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15909,34 +15875,34 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>467</v>
+        <v>567</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>468</v>
+        <v>568</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>469</v>
+        <v>569</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>471</v>
+        <v>571</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15985,19 +15951,19 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>472</v>
+        <v>566</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>105</v>
+        <v>572</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -16006,10 +15972,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>473</v>
+        <v>573</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>474</v>
+        <v>574</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -16020,10 +15986,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>476</v>
+        <v>575</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16040,32 +16006,26 @@
         <v>82</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>477</v>
+        <v>216</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q111" t="s" s="2">
-        <v>480</v>
-      </c>
+      <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
         <v>82</v>
       </c>
@@ -16085,13 +16045,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -16109,7 +16069,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>483</v>
+        <v>218</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16118,10 +16078,10 @@
         <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -16130,10 +16090,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>484</v>
+        <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>485</v>
+        <v>113</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16144,46 +16104,44 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>487</v>
+        <v>576</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>488</v>
+        <v>141</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>489</v>
+        <v>221</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -16219,31 +16177,31 @@
         <v>82</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>491</v>
+        <v>222</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
@@ -16252,10 +16210,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>493</v>
+        <v>106</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16266,52 +16224,52 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>494</v>
+        <v>577</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>495</v>
+        <v>577</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>82</v>
+        <v>578</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I113" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>497</v>
+        <v>580</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>498</v>
+        <v>143</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>499</v>
+        <v>152</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>82</v>
@@ -16353,19 +16311,19 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>501</v>
+        <v>581</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>82</v>
@@ -16374,10 +16332,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>503</v>
+        <v>106</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16388,10 +16346,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16399,35 +16357,33 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>115</v>
+        <v>583</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>506</v>
+        <v>585</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16451,13 +16407,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>509</v>
+        <v>82</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>510</v>
+        <v>82</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16475,7 +16431,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>511</v>
+        <v>582</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16484,10 +16440,10 @@
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>104</v>
+        <v>587</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>105</v>
+        <v>588</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
@@ -16496,10 +16452,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>492</v>
+        <v>589</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16510,10 +16466,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16536,20 +16492,18 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>198</v>
+        <v>583</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16573,13 +16527,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16597,7 +16551,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16606,10 +16560,10 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>105</v>
+        <v>588</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
@@ -16618,10 +16572,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>106</v>
+        <v>589</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16632,21 +16586,21 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -16661,16 +16615,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>527</v>
+        <v>598</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>528</v>
+        <v>599</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16695,13 +16649,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>518</v>
+        <v>119</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16719,13 +16673,13 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>104</v>
@@ -16737,27 +16691,27 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16780,19 +16734,19 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>536</v>
+        <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16817,13 +16771,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>82</v>
+        <v>609</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>82</v>
+        <v>610</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16841,7 +16795,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16859,13 +16813,13 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16876,10 +16830,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16902,18 +16856,20 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>198</v>
+        <v>612</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="O118" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16937,13 +16893,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>547</v>
+        <v>82</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>548</v>
+        <v>82</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16961,7 +16917,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16973,33 +16929,33 @@
         <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>105</v>
+        <v>617</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17022,20 +16978,18 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -17059,13 +17013,13 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -17083,7 +17037,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17104,10 +17058,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -17118,10 +17072,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17132,7 +17086,7 @@
         <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>82</v>
@@ -17141,19 +17095,19 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17203,13 +17157,13 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>104</v>
@@ -17221,27 +17175,27 @@
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>567</v>
+        <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>568</v>
+        <v>629</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>569</v>
+        <v>630</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>570</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>571</v>
+        <v>631</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>571</v>
+        <v>631</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17252,7 +17206,7 @@
         <v>80</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>82</v>
@@ -17261,19 +17215,19 @@
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>572</v>
+        <v>632</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>573</v>
+        <v>633</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>574</v>
+        <v>634</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>575</v>
+        <v>635</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17323,13 +17277,13 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>571</v>
+        <v>631</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>104</v>
@@ -17341,27 +17295,27 @@
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>576</v>
+        <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>577</v>
+        <v>629</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>579</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17369,34 +17323,34 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>80</v>
+        <v>638</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>582</v>
+        <v>639</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>583</v>
+        <v>640</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>584</v>
+        <v>641</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>585</v>
+        <v>642</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17433,19 +17387,17 @@
         <v>82</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="AC122" s="2"/>
       <c r="AD122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17457,7 +17409,7 @@
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>586</v>
+        <v>105</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17466,10 +17418,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17480,10 +17432,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>589</v>
+        <v>646</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>589</v>
+        <v>646</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17598,10 +17550,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17718,14 +17670,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>591</v>
+        <v>648</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>591</v>
+        <v>648</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17747,10 +17699,10 @@
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
@@ -17805,7 +17757,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17840,10 +17792,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17851,7 +17803,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>92</v>
@@ -17863,21 +17815,23 @@
         <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>597</v>
+        <v>198</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>598</v>
+        <v>650</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>599</v>
+        <v>651</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="O126" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
       </c>
@@ -17901,13 +17855,13 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17925,34 +17879,34 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>601</v>
+        <v>104</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>602</v>
+        <v>105</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>82</v>
+        <v>653</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>603</v>
+        <v>360</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>604</v>
+        <v>361</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -17960,10 +17914,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17983,21 +17937,23 @@
         <v>82</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>597</v>
+        <v>433</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>606</v>
+        <v>655</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>607</v>
+        <v>435</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="O127" s="2"/>
+        <v>656</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
       </c>
@@ -18045,7 +18001,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18054,36 +18010,36 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>601</v>
+        <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>602</v>
+        <v>105</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>82</v>
+        <v>657</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>603</v>
+        <v>441</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>608</v>
+        <v>442</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18109,16 +18065,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>610</v>
+        <v>659</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>611</v>
+        <v>660</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>612</v>
+        <v>661</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>613</v>
+        <v>503</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18143,13 +18099,13 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>119</v>
+        <v>504</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>614</v>
+        <v>505</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>615</v>
+        <v>506</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18167,7 +18123,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18176,7 +18132,7 @@
         <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>104</v>
+        <v>507</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>105</v>
@@ -18185,13 +18141,13 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>616</v>
+        <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>617</v>
+        <v>106</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18202,14 +18158,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -18231,16 +18187,16 @@
         <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>619</v>
+        <v>511</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>620</v>
+        <v>512</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>621</v>
+        <v>513</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>622</v>
+        <v>514</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18265,13 +18221,13 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>369</v>
+        <v>504</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>624</v>
+        <v>516</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18289,7 +18245,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18307,27 +18263,27 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>616</v>
+        <v>517</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>617</v>
+        <v>518</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>625</v>
+        <v>663</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>625</v>
+        <v>663</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18338,7 +18294,7 @@
         <v>80</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>82</v>
@@ -18350,19 +18306,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>626</v>
+        <v>83</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>629</v>
+        <v>570</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>630</v>
+        <v>571</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18411,19 +18367,19 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>625</v>
+        <v>663</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>631</v>
+        <v>82</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
@@ -18432,10 +18388,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>632</v>
+        <v>573</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>633</v>
+        <v>574</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18446,44 +18402,48 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="C131" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="D131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>215</v>
+        <v>567</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18531,13 +18491,13 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>104</v>
@@ -18552,10 +18512,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>603</v>
+        <v>644</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18566,10 +18526,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18580,7 +18540,7 @@
         <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>82</v>
@@ -18589,20 +18549,18 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>639</v>
+        <v>215</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>640</v>
+        <v>216</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>642</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18651,19 +18609,19 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>638</v>
+        <v>218</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
@@ -18672,10 +18630,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>643</v>
+        <v>82</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>644</v>
+        <v>113</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18686,14 +18644,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18709,19 +18667,19 @@
         <v>82</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>646</v>
+        <v>140</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>647</v>
+        <v>141</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>648</v>
+        <v>221</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>649</v>
+        <v>143</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18759,19 +18717,19 @@
         <v>82</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>645</v>
+        <v>222</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18783,7 +18741,7 @@
         <v>104</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>82</v>
@@ -18792,10 +18750,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>643</v>
+        <v>82</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>650</v>
+        <v>106</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18806,45 +18764,45 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>82</v>
+        <v>578</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>652</v>
+        <v>80</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>581</v>
+        <v>140</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>653</v>
+        <v>579</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>654</v>
+        <v>580</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>655</v>
+        <v>143</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>656</v>
+        <v>152</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18881,17 +18839,19 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AC134" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>651</v>
+        <v>581</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18903,7 +18863,7 @@
         <v>104</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>82</v>
@@ -18912,10 +18872,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>658</v>
+        <v>82</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>659</v>
+        <v>106</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18926,10 +18886,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18937,7 +18897,7 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>92</v>
@@ -18949,19 +18909,23 @@
         <v>82</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>216</v>
+        <v>650</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
       </c>
@@ -18985,13 +18949,13 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -19009,34 +18973,34 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>218</v>
+        <v>649</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>82</v>
+        <v>653</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>113</v>
+        <v>361</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19044,21 +19008,21 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>82</v>
@@ -19070,17 +19034,15 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -19117,31 +19079,31 @@
         <v>82</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>82</v>
@@ -19153,7 +19115,7 @@
         <v>82</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -19164,14 +19126,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>592</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19184,26 +19146,24 @@
         <v>82</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>593</v>
+        <v>141</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>594</v>
+        <v>221</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O137" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>82</v>
       </c>
@@ -19239,19 +19199,19 @@
         <v>82</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>595</v>
+        <v>222</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19286,10 +19246,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19297,10 +19257,10 @@
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>82</v>
@@ -19312,19 +19272,19 @@
         <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>664</v>
+        <v>226</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>665</v>
+        <v>227</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>666</v>
+        <v>228</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19349,13 +19309,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19373,13 +19333,13 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>663</v>
+        <v>230</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>104</v>
@@ -19391,16 +19351,16 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19408,10 +19368,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19431,23 +19391,19 @@
         <v>82</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>447</v>
+        <v>215</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>669</v>
+        <v>216</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>82</v>
       </c>
@@ -19495,7 +19451,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>668</v>
+        <v>218</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19504,47 +19460,47 @@
         <v>92</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>671</v>
+        <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>456</v>
+        <v>113</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>82</v>
@@ -19556,20 +19512,18 @@
         <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>673</v>
+        <v>141</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>674</v>
+        <v>221</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>82</v>
       </c>
@@ -19593,43 +19547,43 @@
         <v>82</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC140" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>672</v>
+        <v>222</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>521</v>
+        <v>104</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>82</v>
@@ -19638,10 +19592,10 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN140" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19652,21 +19606,21 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>82</v>
@@ -19675,29 +19629,29 @@
         <v>82</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>525</v>
+        <v>239</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>526</v>
+        <v>240</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>527</v>
+        <v>241</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>528</v>
+        <v>242</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>82</v>
@@ -19715,13 +19669,13 @@
         <v>82</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
@@ -19739,13 +19693,13 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>676</v>
+        <v>244</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>104</v>
@@ -19757,27 +19711,27 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>532</v>
+        <v>245</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>533</v>
+        <v>246</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19788,7 +19742,7 @@
         <v>80</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>82</v>
@@ -19797,23 +19751,21 @@
         <v>82</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>678</v>
+        <v>249</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>679</v>
+        <v>250</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>82</v>
       </c>
@@ -19861,19 +19813,19 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>677</v>
+        <v>252</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
@@ -19882,10 +19834,10 @@
         <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>587</v>
+        <v>253</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>588</v>
+        <v>254</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
@@ -19896,14 +19848,12 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>681</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
         <v>82</v>
       </c>
@@ -19915,7 +19865,7 @@
         <v>92</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>82</v>
@@ -19924,26 +19874,26 @@
         <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>581</v>
+        <v>115</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>653</v>
+        <v>688</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>654</v>
+        <v>258</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>655</v>
+        <v>259</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>656</v>
+        <v>260</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>82</v>
+        <v>689</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>82</v>
@@ -19985,13 +19935,13 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>651</v>
+        <v>262</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>104</v>
@@ -20006,10 +19956,10 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>658</v>
+        <v>263</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>659</v>
+        <v>264</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>82</v>
@@ -20020,10 +19970,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20043,19 +19993,23 @@
         <v>82</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
       </c>
@@ -20103,7 +20057,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20112,10 +20066,10 @@
         <v>92</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>82</v>
@@ -20124,10 +20078,10 @@
         <v>82</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>82</v>
@@ -20138,21 +20092,21 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>82</v>
@@ -20161,21 +20115,23 @@
         <v>82</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O145" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
       </c>
@@ -20211,31 +20167,31 @@
         <v>82</v>
       </c>
       <c r="AB145" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC145" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>82</v>
@@ -20244,10 +20200,10 @@
         <v>82</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>82</v>
@@ -20258,45 +20214,45 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>592</v>
+        <v>82</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>593</v>
+        <v>285</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>594</v>
+        <v>286</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20345,19 +20301,19 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>595</v>
+        <v>289</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>82</v>
@@ -20366,10 +20322,10 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>82</v>
@@ -20380,10 +20336,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20391,7 +20347,7 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>92</v>
@@ -20409,23 +20365,23 @@
         <v>198</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>665</v>
+        <v>435</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q147" s="2"/>
       <c r="R147" t="s" s="2">
-        <v>82</v>
+        <v>698</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>82</v>
@@ -20443,13 +20399,13 @@
         <v>82</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>82</v>
@@ -20467,10 +20423,10 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>92</v>
@@ -20485,27 +20441,27 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP147" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20528,16 +20484,20 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>216</v>
+        <v>659</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P148" t="s" s="2">
         <v>82</v>
       </c>
@@ -20561,13 +20521,13 @@
         <v>82</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>82</v>
@@ -20585,7 +20545,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>218</v>
+        <v>658</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20594,10 +20554,10 @@
         <v>92</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>82</v>
@@ -20606,10 +20566,10 @@
         <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>113</v>
+        <v>508</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>82</v>
@@ -20620,14 +20580,14 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>139</v>
+        <v>510</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -20646,18 +20606,20 @@
         <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>141</v>
+        <v>511</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>221</v>
+        <v>512</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O149" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
       </c>
@@ -20681,31 +20643,31 @@
         <v>82</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>222</v>
+        <v>662</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20717,33 +20679,33 @@
         <v>104</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>106</v>
+        <v>519</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP149" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20763,22 +20725,22 @@
         <v>82</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>226</v>
+        <v>664</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>227</v>
+        <v>665</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>228</v>
+        <v>570</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>229</v>
+        <v>571</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20827,7 +20789,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>230</v>
+        <v>663</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20836,10 +20798,10 @@
         <v>81</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>82</v>
@@ -20848,10 +20810,10 @@
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>231</v>
+        <v>573</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>232</v>
+        <v>574</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
@@ -20862,42 +20824,48 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="C151" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>703</v>
+      </c>
       <c r="D151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>215</v>
+        <v>567</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>216</v>
+        <v>639</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
       </c>
@@ -20945,19 +20913,19 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>218</v>
+        <v>637</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>82</v>
@@ -20966,10 +20934,10 @@
         <v>82</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>82</v>
+        <v>644</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>113</v>
+        <v>645</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>82</v>
@@ -20980,21 +20948,21 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>695</v>
+        <v>646</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>82</v>
@@ -21006,17 +20974,15 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21053,31 +21019,31 @@
         <v>82</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC152" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>82</v>
@@ -21089,7 +21055,7 @@
         <v>82</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>82</v>
@@ -21100,21 +21066,21 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>697</v>
+        <v>647</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>82</v>
@@ -21123,29 +21089,27 @@
         <v>82</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>82</v>
@@ -21175,31 +21139,31 @@
         <v>82</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>82</v>
@@ -21208,10 +21172,10 @@
         <v>82</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
@@ -21222,44 +21186,46 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>699</v>
+        <v>648</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>82</v>
+        <v>578</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J154" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>249</v>
+        <v>579</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O154" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
       </c>
@@ -21307,19 +21273,19 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>252</v>
+        <v>581</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>82</v>
@@ -21328,10 +21294,10 @@
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>82</v>
@@ -21342,10 +21308,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>701</v>
+        <v>649</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21368,26 +21334,26 @@
         <v>93</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>702</v>
+        <v>650</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>258</v>
+        <v>651</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>259</v>
+        <v>652</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q155" s="2"/>
       <c r="R155" t="s" s="2">
-        <v>703</v>
+        <v>82</v>
       </c>
       <c r="S155" t="s" s="2">
         <v>82</v>
@@ -21405,13 +21371,13 @@
         <v>82</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -21429,10 +21395,10 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>262</v>
+        <v>649</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>92</v>
@@ -21447,16 +21413,16 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>82</v>
+        <v>653</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>263</v>
+        <v>360</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21464,10 +21430,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21487,23 +21453,19 @@
         <v>82</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
         <v>82</v>
       </c>
@@ -21551,7 +21513,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21560,10 +21522,10 @@
         <v>92</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>82</v>
@@ -21572,10 +21534,10 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>272</v>
+        <v>113</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>82</v>
@@ -21586,21 +21548,21 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>82</v>
@@ -21609,23 +21571,21 @@
         <v>82</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
         <v>82</v>
       </c>
@@ -21661,31 +21621,31 @@
         <v>82</v>
       </c>
       <c r="AB157" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC157" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>82</v>
@@ -21694,10 +21654,10 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>82</v>
@@ -21708,10 +21668,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21722,7 +21682,7 @@
         <v>80</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>82</v>
@@ -21734,19 +21694,19 @@
         <v>93</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -21795,13 +21755,13 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>104</v>
@@ -21816,10 +21776,10 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>82</v>
@@ -21830,10 +21790,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21853,29 +21813,25 @@
         <v>82</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>711</v>
+        <v>216</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>712</v>
+        <v>82</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>82</v>
@@ -21917,7 +21873,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>668</v>
+        <v>218</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21926,47 +21882,47 @@
         <v>92</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>671</v>
+        <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>456</v>
+        <v>113</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP159" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>82</v>
@@ -21978,20 +21934,18 @@
         <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>673</v>
+        <v>141</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>674</v>
+        <v>221</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
         <v>82</v>
       </c>
@@ -22015,43 +21969,43 @@
         <v>82</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB160" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC160" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>672</v>
+        <v>222</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>521</v>
+        <v>104</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>82</v>
@@ -22060,10 +22014,10 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN160" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -22074,21 +22028,21 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>82</v>
@@ -22097,29 +22051,29 @@
         <v>82</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>525</v>
+        <v>239</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>526</v>
+        <v>240</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>527</v>
+        <v>241</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>528</v>
+        <v>242</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>82</v>
+        <v>714</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>82</v>
@@ -22137,13 +22091,13 @@
         <v>82</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22161,13 +22115,13 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>676</v>
+        <v>244</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>104</v>
@@ -22179,19 +22133,19 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>532</v>
+        <v>245</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>533</v>
+        <v>246</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP161" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162" hidden="true">
@@ -22199,7 +22153,7 @@
         <v>715</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22210,7 +22164,7 @@
         <v>80</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>82</v>
@@ -22219,23 +22173,21 @@
         <v>82</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>678</v>
+        <v>249</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>679</v>
+        <v>250</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
         <v>82</v>
       </c>
@@ -22283,19 +22235,19 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>677</v>
+        <v>252</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>82</v>
@@ -22304,10 +22256,10 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>587</v>
+        <v>253</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>588</v>
+        <v>254</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
@@ -22321,11 +22273,9 @@
         <v>716</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>717</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
         <v>82</v>
       </c>
@@ -22337,7 +22287,7 @@
         <v>92</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>82</v>
@@ -22346,26 +22296,26 @@
         <v>93</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>581</v>
+        <v>115</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>653</v>
+        <v>257</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>654</v>
+        <v>258</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>655</v>
+        <v>259</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>656</v>
+        <v>260</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>82</v>
+        <v>717</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>82</v>
@@ -22407,13 +22357,13 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>651</v>
+        <v>262</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>104</v>
@@ -22428,10 +22378,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>658</v>
+        <v>263</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>659</v>
+        <v>264</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22445,7 +22395,7 @@
         <v>718</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22465,19 +22415,23 @@
         <v>82</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
       </c>
@@ -22525,7 +22479,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22534,10 +22488,10 @@
         <v>92</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
@@ -22546,10 +22500,10 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>82</v>
@@ -22563,18 +22517,18 @@
         <v>719</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>82</v>
@@ -22583,21 +22537,23 @@
         <v>82</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O165" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
       </c>
@@ -22633,31 +22589,31 @@
         <v>82</v>
       </c>
       <c r="AB165" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC165" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>82</v>
@@ -22666,10 +22622,10 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>82</v>
@@ -22683,42 +22639,42 @@
         <v>720</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>592</v>
+        <v>82</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J166" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>593</v>
+        <v>285</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>594</v>
+        <v>286</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -22767,19 +22723,19 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>595</v>
+        <v>289</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>82</v>
@@ -22788,10 +22744,10 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -22805,7 +22761,7 @@
         <v>721</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22813,7 +22769,7 @@
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>92</v>
@@ -22828,19 +22784,19 @@
         <v>93</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>198</v>
+        <v>722</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>665</v>
+        <v>435</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -22865,13 +22821,13 @@
         <v>82</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>82</v>
@@ -22889,10 +22845,10 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>92</v>
@@ -22901,33 +22857,33 @@
         <v>104</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP167" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>687</v>
+        <v>724</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23042,10 +22998,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>689</v>
+        <v>726</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23162,10 +23118,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>691</v>
+        <v>728</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23173,35 +23129,31 @@
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G170" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>225</v>
+        <v>722</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>226</v>
+        <v>729</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
@@ -23249,19 +23201,19 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>230</v>
+        <v>731</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>82</v>
@@ -23270,10 +23222,10 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>82</v>
@@ -23284,10 +23236,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23310,16 +23262,20 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>216</v>
+        <v>659</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
       </c>
@@ -23343,13 +23299,13 @@
         <v>82</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23367,7 +23323,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>218</v>
+        <v>658</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23376,10 +23332,10 @@
         <v>92</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>82</v>
@@ -23388,10 +23344,10 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>113</v>
+        <v>508</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -23402,14 +23358,14 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>139</v>
+        <v>510</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -23428,18 +23384,20 @@
         <v>82</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>141</v>
+        <v>511</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>221</v>
+        <v>512</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O172" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
       </c>
@@ -23463,31 +23421,31 @@
         <v>82</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB172" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC172" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>222</v>
+        <v>662</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23499,33 +23457,33 @@
         <v>104</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>106</v>
+        <v>519</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP172" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>697</v>
+        <v>663</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23533,10 +23491,10 @@
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>82</v>
@@ -23545,29 +23503,29 @@
         <v>82</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>239</v>
+        <v>664</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>240</v>
+        <v>665</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>241</v>
+        <v>570</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>242</v>
+        <v>571</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q173" s="2"/>
       <c r="R173" t="s" s="2">
-        <v>728</v>
+        <v>82</v>
       </c>
       <c r="S173" t="s" s="2">
         <v>82</v>
@@ -23609,19 +23567,19 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>244</v>
+        <v>663</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>82</v>
@@ -23630,1472 +23588,20 @@
         <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>245</v>
+        <v>573</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>246</v>
+        <v>574</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP173" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="174" hidden="true">
-      <c r="A174" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="C174" s="2"/>
-      <c r="D174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E174" s="2"/>
-      <c r="F174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G174" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O174" s="2"/>
-      <c r="P174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q174" s="2"/>
-      <c r="R174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN174" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AO174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP174" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="175" hidden="true">
-      <c r="A175" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="C175" s="2"/>
-      <c r="D175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E175" s="2"/>
-      <c r="F175" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G175" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="P175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q175" s="2"/>
-      <c r="R175" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="S175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM175" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN175" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AO175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP175" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="176" hidden="true">
-      <c r="A176" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="C176" s="2"/>
-      <c r="D176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E176" s="2"/>
-      <c r="F176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="P176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q176" s="2"/>
-      <c r="R176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM176" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN176" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AO176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP176" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="177" hidden="true">
-      <c r="A177" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="C177" s="2"/>
-      <c r="D177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E177" s="2"/>
-      <c r="F177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G177" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="P177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q177" s="2"/>
-      <c r="R177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM177" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN177" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP177" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="178" hidden="true">
-      <c r="A178" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="C178" s="2"/>
-      <c r="D178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E178" s="2"/>
-      <c r="F178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="P178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q178" s="2"/>
-      <c r="R178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN178" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AO178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP178" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="179" hidden="true">
-      <c r="A179" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="C179" s="2"/>
-      <c r="D179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E179" s="2"/>
-      <c r="F179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G179" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J179" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K179" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="P179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q179" s="2"/>
-      <c r="R179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL179" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AM179" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AN179" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AO179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP179" t="s" s="2">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="180" hidden="true">
-      <c r="A180" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="C180" s="2"/>
-      <c r="D180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E180" s="2"/>
-      <c r="F180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G180" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K180" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-      <c r="P180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q180" s="2"/>
-      <c r="R180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH180" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN180" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AO180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP180" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="181" hidden="true">
-      <c r="A181" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="C181" s="2"/>
-      <c r="D181" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E181" s="2"/>
-      <c r="F181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K181" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O181" s="2"/>
-      <c r="P181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q181" s="2"/>
-      <c r="R181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB181" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE181" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF181" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH181" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI181" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ181" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN181" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP181" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="182" hidden="true">
-      <c r="A182" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="C182" s="2"/>
-      <c r="D182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E182" s="2"/>
-      <c r="F182" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G182" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-      <c r="P182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q182" s="2"/>
-      <c r="R182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP182" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="183" hidden="true">
-      <c r="A183" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="C183" s="2"/>
-      <c r="D183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E183" s="2"/>
-      <c r="F183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G183" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K183" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="P183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q183" s="2"/>
-      <c r="R183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X183" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AA183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF183" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AG183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH183" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI183" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AJ183" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM183" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN183" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AO183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP183" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="184" hidden="true">
-      <c r="A184" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="C184" s="2"/>
-      <c r="D184" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="E184" s="2"/>
-      <c r="F184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G184" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="P184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q184" s="2"/>
-      <c r="R184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X184" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="Y184" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="Z184" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AN184" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AO184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP184" t="s" s="2">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="185" hidden="true">
-      <c r="A185" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="B185" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="C185" s="2"/>
-      <c r="D185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E185" s="2"/>
-      <c r="F185" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="P185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q185" s="2"/>
-      <c r="R185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF185" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AG185" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH185" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AN185" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AO185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP185" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP185">
+  <autoFilter ref="A1:AP173">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -25105,7 +23611,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI184">
+  <conditionalFormatting sqref="A2:AI172">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4863,7 +4863,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -5223,7 +5223,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5465,7 +5465,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -6315,7 +6315,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6675,7 +6675,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6917,7 +6917,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7767,7 +7767,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -8127,7 +8127,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8369,7 +8369,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -9219,7 +9219,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9579,7 +9579,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9821,7 +9821,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10671,7 +10671,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -11031,7 +11031,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -11273,7 +11273,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-age-at-diagnosis-of-essential-hypertension</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-age-at-diagnosis-of-essential-hypertension</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-age-at-diagnosis</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-age-at-diagnosis</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1591,7 +1591,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-time-units</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2472,7 +2472,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-age-at-diagnosis-of-essential-hypertension</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-age-at-diagnosis-of-essential-hypertension</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-age-at-diagnosis</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-age-at-diagnosis</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1591,7 +1591,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-time-units</t>
+    <t>http://fhir.org/de/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-age-at-diagnosis-of-essential-hypertension</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-age-at-diagnosis-of-essential-hypertension</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-age-at-diagnosis</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-ncit-age-at-diagnosis</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1591,7 +1591,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-time-units</t>
+    <t>http://hl7.org/de/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4322,7 +4322,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -5774,7 +5774,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -7226,7 +7226,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -8678,7 +8678,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>
@@ -10130,7 +10130,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>93</v>
@@ -11582,7 +11582,7 @@
         <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>93</v>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1199,7 +1199,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1199,7 +1199,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
+++ b/output/StructureDefinition-cde-age-at-diagnosis-of-essential-hypertension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
